--- a/process/data/policy_review/gohsc-policy-indicator-checklist-example-ES-Las-Palmas-2023.xlsx
+++ b/process/data/policy_review/gohsc-policy-indicator-checklist-example-ES-Las-Palmas-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rmiteduau-my.sharepoint.com/personal/carl_higgs_rmit_edu_au/Documents/projects/global-indicators/process/data/policy_review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\repos\global-indicators\process\data\policy_review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="135" documentId="8_{888B9D5A-A44D-4010-BD8A-915C03699794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD237351-2600-4AA5-8CC8-B9FF80627BDC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56BB1CC-657B-43A7-B9C8-CE2BFBE85568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{CBD1D931-24DA-4E3E-B988-2C7CFFF38AFE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBD1D931-24DA-4E3E-B988-2C7CFFF38AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions " sheetId="5" r:id="rId1"/>
@@ -3626,17 +3626,155 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3648,9 +3786,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3658,33 +3838,143 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3726,322 +4016,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -4753,9 +4739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863DEF1F-8203-40FF-90F0-95E7089B6146}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:C66"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4775,44 +4759,44 @@
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="207" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="172"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
+      <c r="A4" s="208"/>
+      <c r="B4" s="208"/>
+      <c r="C4" s="208"/>
     </row>
     <row r="5" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
+      <c r="A6" s="210"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="175"/>
-      <c r="C7" s="175"/>
+      <c r="B7" s="211"/>
+      <c r="C7" s="211"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="169"/>
+      <c r="C8" s="206"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="155"/>
@@ -4845,28 +4829,28 @@
       <c r="A12" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="205" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="167"/>
+      <c r="C12" s="205"/>
     </row>
     <row r="13" spans="1:3" s="33" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="167" t="s">
+      <c r="B13" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="167"/>
+      <c r="C13" s="205"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="167" t="s">
+      <c r="B14" s="205" t="s">
         <v>322</v>
       </c>
-      <c r="C14" s="167"/>
+      <c r="C14" s="205"/>
     </row>
     <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="123"/>
@@ -4892,38 +4876,38 @@
       <c r="C17" s="157"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="170" t="s">
+      <c r="A18" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="212"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="167" t="s">
+      <c r="B19" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="167"/>
+      <c r="C19" s="205"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="167" t="s">
+      <c r="B20" s="205" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="167"/>
+      <c r="C20" s="205"/>
     </row>
     <row r="21" spans="1:3" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="167" t="s">
+      <c r="B21" s="205" t="s">
         <v>323</v>
       </c>
-      <c r="C21" s="167"/>
+      <c r="C21" s="205"/>
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="156"/>
@@ -4931,11 +4915,11 @@
       <c r="C22" s="158"/>
     </row>
     <row r="23" spans="1:3" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="170" t="s">
+      <c r="A23" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="170"/>
-      <c r="C23" s="170"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="212"/>
     </row>
     <row r="24" spans="1:3" s="33" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="156"/>
@@ -4948,19 +4932,19 @@
       <c r="A25" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="167" t="s">
+      <c r="B25" s="205" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="167"/>
+      <c r="C25" s="205"/>
     </row>
     <row r="26" spans="1:3" s="33" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="205" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="167"/>
+      <c r="C26" s="205"/>
     </row>
     <row r="27" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="123"/>
@@ -5007,10 +4991,10 @@
       <c r="A32" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="167" t="s">
+      <c r="B32" s="205" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="167"/>
+      <c r="C32" s="205"/>
     </row>
     <row r="33" spans="1:3" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="123"/>
@@ -5052,10 +5036,10 @@
       <c r="A37" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="167" t="s">
+      <c r="B37" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="167"/>
+      <c r="C37" s="205"/>
     </row>
     <row r="38" spans="1:3" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="156"/>
@@ -5192,29 +5176,29 @@
       <c r="C53" s="136"/>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="166" t="s">
+      <c r="A54" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="B54" s="166"/>
-      <c r="C54" s="166"/>
+      <c r="B54" s="204"/>
+      <c r="C54" s="204"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="167" t="s">
+      <c r="B55" s="205" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="167"/>
+      <c r="C55" s="205"/>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="167" t="s">
+      <c r="B56" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="C56" s="167"/>
+      <c r="C56" s="205"/>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="123"/>
@@ -5222,65 +5206,65 @@
       <c r="C57" s="136"/>
     </row>
     <row r="58" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="166" t="s">
+      <c r="A58" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="B58" s="166"/>
-      <c r="C58" s="166"/>
+      <c r="B58" s="204"/>
+      <c r="C58" s="204"/>
     </row>
     <row r="59" spans="1:3" s="33" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="167" t="s">
+      <c r="B59" s="205" t="s">
         <v>334</v>
       </c>
-      <c r="C59" s="167"/>
+      <c r="C59" s="205"/>
     </row>
     <row r="60" spans="1:3" s="33" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="167" t="s">
+      <c r="B60" s="205" t="s">
         <v>335</v>
       </c>
-      <c r="C60" s="167"/>
+      <c r="C60" s="205"/>
     </row>
     <row r="61" spans="1:3" s="36" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="169" t="s">
+      <c r="B61" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="C61" s="169"/>
+      <c r="C61" s="206"/>
     </row>
     <row r="62" spans="1:3" s="33" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="167" t="s">
+      <c r="B62" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="167"/>
+      <c r="C62" s="205"/>
     </row>
     <row r="63" spans="1:3" s="33" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="167" t="s">
+      <c r="B63" s="205" t="s">
         <v>336</v>
       </c>
-      <c r="C63" s="167"/>
+      <c r="C63" s="205"/>
     </row>
     <row r="64" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="167" t="s">
+      <c r="B64" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="167"/>
+      <c r="C64" s="205"/>
     </row>
     <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="124"/>
@@ -5288,14 +5272,27 @@
       <c r="C65" s="124"/>
     </row>
     <row r="66" spans="1:3" s="36" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="168" t="s">
+      <c r="A66" s="213" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="168"/>
-      <c r="C66" s="168"/>
+      <c r="B66" s="213"/>
+      <c r="C66" s="213"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B56:C56"/>
@@ -5312,19 +5309,6 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B60:C60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A66:C66" r:id="rId1" display="For further guidance on completing the checklist and preparing a policy indicators report, visit our Wiki." xr:uid="{06F1E41D-4AD9-467E-975B-04E72471265A}"/>
@@ -5339,9 +5323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EF0244-53C7-4490-871D-FAEADDBBE912}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5354,202 +5336,202 @@
     <row r="1" spans="1:3" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
-      <c r="C1" s="233"/>
+      <c r="C1" s="167"/>
     </row>
     <row r="2" spans="1:3" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="14"/>
-      <c r="C2" s="233"/>
+      <c r="C2" s="167"/>
     </row>
     <row r="3" spans="1:3" s="31" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
+      <c r="B3" s="207"/>
+      <c r="C3" s="207"/>
     </row>
     <row r="4" spans="1:3" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38"/>
-      <c r="C4" s="234"/>
+      <c r="C4" s="168"/>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="183" t="s">
+      <c r="A5" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="235" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="169" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="184"/>
-      <c r="C6" s="236" t="s">
+      <c r="B6" s="225"/>
+      <c r="C6" s="170" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="237">
+      <c r="B7" s="225"/>
+      <c r="C7" s="171">
         <v>45939</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="183" t="s">
+      <c r="A8" s="216" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="183"/>
-      <c r="C8" s="238" t="s">
+      <c r="B8" s="216"/>
+      <c r="C8" s="172" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="248" t="s">
+      <c r="A9" s="217" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="248"/>
-      <c r="C9" s="235" t="s">
+      <c r="B9" s="217"/>
+      <c r="C9" s="169" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="216" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="238" t="s">
+      <c r="B10" s="216"/>
+      <c r="C10" s="172" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="222" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="235" t="s">
+      <c r="B11" s="224"/>
+      <c r="C11" s="169" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177" t="s">
+      <c r="A12" s="227" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="177"/>
-      <c r="C12" s="239"/>
+      <c r="B12" s="227"/>
+      <c r="C12" s="173"/>
     </row>
     <row r="13" spans="1:3" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="185" t="s">
+      <c r="A13" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="185"/>
-      <c r="C13" s="185"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="226"/>
     </row>
     <row r="14" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="178" t="s">
+      <c r="A14" s="228" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="178"/>
-      <c r="C14" s="240"/>
+      <c r="B14" s="228"/>
+      <c r="C14" s="174"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="215" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="176"/>
-      <c r="C15" s="232" t="s">
+      <c r="B15" s="215"/>
+      <c r="C15" s="166" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="176" t="s">
+      <c r="A16" s="215" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="176"/>
-      <c r="C16" s="241" t="s">
+      <c r="B16" s="215"/>
+      <c r="C16" s="175" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="176"/>
-      <c r="C17" s="241" t="s">
+      <c r="B17" s="215"/>
+      <c r="C17" s="175" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="176" t="s">
+      <c r="A18" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="176"/>
-      <c r="C18" s="241" t="s">
+      <c r="B18" s="215"/>
+      <c r="C18" s="175" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="176" t="s">
+      <c r="A19" s="215" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="176"/>
-      <c r="C19" s="241" t="s">
+      <c r="B19" s="215"/>
+      <c r="C19" s="175" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="176" t="s">
+      <c r="A20" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="176"/>
-      <c r="C20" s="242" t="s">
+      <c r="B20" s="215"/>
+      <c r="C20" s="176" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="176" t="s">
+      <c r="A21" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="176"/>
-      <c r="C21" s="242" t="s">
+      <c r="B21" s="215"/>
+      <c r="C21" s="176" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="176" t="s">
+      <c r="A22" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="176"/>
-      <c r="C22" s="242" t="s">
+      <c r="B22" s="215"/>
+      <c r="C22" s="176" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="176" t="s">
+      <c r="A23" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="176"/>
-      <c r="C23" s="241" t="s">
+      <c r="B23" s="215"/>
+      <c r="C23" s="175" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="176" t="s">
+      <c r="A24" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="176"/>
-      <c r="C24" s="239"/>
+      <c r="B24" s="215"/>
+      <c r="C24" s="173"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>232</v>
       </c>
       <c r="B25" s="35"/>
-      <c r="C25" s="240"/>
+      <c r="C25" s="174"/>
     </row>
     <row r="26" spans="1:3" s="33" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
@@ -5559,57 +5541,57 @@
       <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" s="33" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="181" t="s">
+      <c r="A27" s="222" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="179"/>
-      <c r="C27" s="243" t="s">
+      <c r="B27" s="219"/>
+      <c r="C27" s="177" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="33" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="219" t="s">
         <v>315</v>
       </c>
-      <c r="B28" s="179"/>
-      <c r="C28" s="244" t="s">
+      <c r="B28" s="219"/>
+      <c r="C28" s="178" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="33" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="181" t="s">
+      <c r="A29" s="222" t="s">
         <v>338</v>
       </c>
-      <c r="B29" s="181"/>
-      <c r="C29" s="245" t="s">
+      <c r="B29" s="222"/>
+      <c r="C29" s="179" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="126"/>
       <c r="B30" s="126"/>
-      <c r="C30" s="246"/>
+      <c r="C30" s="180"/>
     </row>
     <row r="31" spans="1:3" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="125" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="126"/>
-      <c r="C31" s="246"/>
+      <c r="C31" s="180"/>
     </row>
     <row r="32" spans="1:3" s="153" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="186" t="s">
+      <c r="A32" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
+      <c r="B32" s="223"/>
+      <c r="C32" s="223"/>
     </row>
     <row r="33" spans="1:3" s="39" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="187" t="s">
+      <c r="A33" s="221" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="187"/>
-      <c r="C33" s="187"/>
+      <c r="B33" s="221"/>
+      <c r="C33" s="221"/>
     </row>
     <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="133" t="s">
@@ -5622,165 +5604,165 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="249" t="s">
+      <c r="A36" s="182" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="250" t="s">
+      <c r="B36" s="218" t="s">
         <v>342</v>
       </c>
-      <c r="C36" s="250"/>
+      <c r="C36" s="218"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="179" t="s">
+      <c r="A37" s="219" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="179"/>
-      <c r="C37" s="244" t="s">
+      <c r="B37" s="219"/>
+      <c r="C37" s="178" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="179" t="s">
+      <c r="A38" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="179"/>
-      <c r="C38" s="244" t="s">
+      <c r="B38" s="219"/>
+      <c r="C38" s="178" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="179" t="s">
+      <c r="A39" s="219" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="179"/>
-      <c r="C39" s="244" t="s">
+      <c r="B39" s="219"/>
+      <c r="C39" s="178" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="179" t="s">
+      <c r="A40" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="179"/>
-      <c r="C40" s="247" t="s">
+      <c r="B40" s="219"/>
+      <c r="C40" s="181" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="179" t="s">
+      <c r="A41" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="179"/>
-      <c r="C41" s="247" t="s">
+      <c r="B41" s="219"/>
+      <c r="C41" s="181" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="180" t="s">
+      <c r="A42" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="180"/>
-      <c r="C42" s="247" t="s">
+      <c r="B42" s="220"/>
+      <c r="C42" s="181" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="249" t="s">
+      <c r="A43" s="182" t="s">
         <v>349</v>
       </c>
-      <c r="B43" s="251"/>
-      <c r="C43" s="251"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="214"/>
     </row>
     <row r="44" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="179" t="s">
+      <c r="A44" s="219" t="s">
         <v>71</v>
       </c>
-      <c r="B44" s="179"/>
-      <c r="C44" s="244"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="178"/>
     </row>
     <row r="45" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="179" t="s">
+      <c r="A45" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="B45" s="179"/>
-      <c r="C45" s="244"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="178"/>
     </row>
     <row r="46" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="179" t="s">
+      <c r="A46" s="219" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="179"/>
-      <c r="C46" s="244"/>
+      <c r="B46" s="219"/>
+      <c r="C46" s="178"/>
     </row>
     <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="179" t="s">
+      <c r="A47" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="179"/>
-      <c r="C47" s="244"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="178"/>
     </row>
     <row r="48" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="179" t="s">
+      <c r="A48" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="179"/>
-      <c r="C48" s="244"/>
+      <c r="B48" s="219"/>
+      <c r="C48" s="178"/>
     </row>
     <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="180" t="s">
+      <c r="A49" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="B49" s="180"/>
-      <c r="C49" s="245"/>
+      <c r="B49" s="220"/>
+      <c r="C49" s="179"/>
     </row>
     <row r="50" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="249" t="s">
+      <c r="A50" s="182" t="s">
         <v>349</v>
       </c>
-      <c r="B50" s="251"/>
-      <c r="C50" s="251"/>
+      <c r="B50" s="214"/>
+      <c r="C50" s="214"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="179" t="s">
+      <c r="A51" s="219" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="244"/>
+      <c r="B51" s="219"/>
+      <c r="C51" s="178"/>
     </row>
     <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="179" t="s">
+      <c r="A52" s="219" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="179"/>
-      <c r="C52" s="244"/>
+      <c r="B52" s="219"/>
+      <c r="C52" s="178"/>
     </row>
     <row r="53" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="179" t="s">
+      <c r="A53" s="219" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="179"/>
-      <c r="C53" s="244"/>
+      <c r="B53" s="219"/>
+      <c r="C53" s="178"/>
     </row>
     <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="179" t="s">
+      <c r="A54" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="179"/>
-      <c r="C54" s="244"/>
+      <c r="B54" s="219"/>
+      <c r="C54" s="178"/>
     </row>
     <row r="55" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="179" t="s">
+      <c r="A55" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="B55" s="179"/>
-      <c r="C55" s="244"/>
+      <c r="B55" s="219"/>
+      <c r="C55" s="178"/>
     </row>
     <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="180" t="s">
+      <c r="A56" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="180"/>
-      <c r="C56" s="245"/>
+      <c r="B56" s="220"/>
+      <c r="C56" s="179"/>
     </row>
     <row r="57" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
@@ -5792,13 +5774,21 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="47">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A33:C33"/>
@@ -5813,32 +5803,24 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="No/Yes" prompt="Please select response from drop down" sqref="C15:C23" xr:uid="{7200986C-DC30-4512-8BE1-5C41BF347B27}">
@@ -5861,10 +5843,10 @@
   <dimension ref="A1:O288"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A275" sqref="A275:A288"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5883,66 +5865,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="55" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="262" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="207" t="s">
+      <c r="B1" s="263"/>
+      <c r="C1" s="247" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="210" t="s">
+      <c r="D1" s="250" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="203" t="s">
+      <c r="E1" s="245" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="203" t="s">
+      <c r="F1" s="245" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="203" t="s">
+      <c r="G1" s="245" t="s">
         <v>83</v>
       </c>
-      <c r="H1" s="203" t="s">
+      <c r="H1" s="245" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="218" t="s">
+      <c r="I1" s="252" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="219"/>
-      <c r="K1" s="222" t="s">
+      <c r="J1" s="253"/>
+      <c r="K1" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="223"/>
+      <c r="L1" s="257"/>
       <c r="M1" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="194" t="s">
+      <c r="N1" s="270" t="s">
         <v>290</v>
       </c>
-      <c r="O1" s="195"/>
+      <c r="O1" s="271"/>
     </row>
     <row r="2" spans="1:15" s="55" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="144" t="s">
         <v>341</v>
       </c>
       <c r="B2" s="56"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="211"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="224"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="198" t="s">
+      <c r="C2" s="248"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="254"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="258"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="240" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="196" t="s">
+      <c r="N2" s="272" t="s">
         <v>321</v>
       </c>
-      <c r="O2" s="197"/>
+      <c r="O2" s="273"/>
     </row>
     <row r="3" spans="1:15" s="55" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="145" t="s">
@@ -5951,7 +5933,7 @@
       <c r="B3" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="209"/>
+      <c r="C3" s="249"/>
       <c r="D3" s="58" t="s">
         <v>90</v>
       </c>
@@ -5977,7 +5959,7 @@
       <c r="L3" s="62" t="s">
         <v>289</v>
       </c>
-      <c r="M3" s="199"/>
+      <c r="M3" s="241"/>
       <c r="N3" s="147" t="s">
         <v>95</v>
       </c>
@@ -6027,10 +6009,10 @@
       <c r="O4" s="162"/>
     </row>
     <row r="5" spans="1:15" s="68" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="226" t="s">
+      <c r="A5" s="260" t="s">
         <v>287</v>
       </c>
-      <c r="B5" s="227"/>
+      <c r="B5" s="261"/>
       <c r="C5" s="69" t="s">
         <v>107</v>
       </c>
@@ -6060,10 +6042,10 @@
       <c r="O5" s="162"/>
     </row>
     <row r="6" spans="1:15" s="138" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="205" t="s">
+      <c r="A6" s="236" t="s">
         <v>291</v>
       </c>
-      <c r="B6" s="206"/>
+      <c r="B6" s="237"/>
       <c r="C6" s="139"/>
       <c r="D6" s="140"/>
       <c r="E6" s="140"/>
@@ -6079,24 +6061,24 @@
       <c r="O6" s="137"/>
     </row>
     <row r="7" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="215"/>
+      <c r="B7" s="230"/>
       <c r="C7" s="3" t="s">
         <v>102</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E7" s="256"/>
-      <c r="F7" s="257"/>
-      <c r="G7" s="257"/>
-      <c r="H7" s="257"/>
-      <c r="I7" s="257"/>
-      <c r="J7" s="257"/>
-      <c r="K7" s="257"/>
-      <c r="L7" s="258"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="232"/>
+      <c r="G7" s="232"/>
+      <c r="H7" s="232"/>
+      <c r="I7" s="232"/>
+      <c r="J7" s="232"/>
+      <c r="K7" s="232"/>
+      <c r="L7" s="233"/>
       <c r="M7" s="77" t="s">
         <v>363</v>
       </c>
@@ -6104,24 +6086,24 @@
       <c r="O7" s="163"/>
     </row>
     <row r="8" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="214" t="s">
+      <c r="A8" s="229" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="215"/>
+      <c r="B8" s="230"/>
       <c r="C8" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E8" s="256"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="257"/>
-      <c r="H8" s="257"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="257"/>
-      <c r="L8" s="258"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="232"/>
+      <c r="L8" s="233"/>
       <c r="M8" s="77" t="s">
         <v>364</v>
       </c>
@@ -6129,23 +6111,23 @@
       <c r="O8" s="163"/>
     </row>
     <row r="9" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="216" t="s">
+      <c r="A9" s="234" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="217"/>
+      <c r="B9" s="235"/>
       <c r="C9" s="87" t="s">
         <v>359</v>
       </c>
       <c r="D9" s="87" t="s">
         <v>362</v>
       </c>
-      <c r="E9" s="259">
+      <c r="E9" s="187">
         <v>2023</v>
       </c>
-      <c r="F9" s="260" t="s">
+      <c r="F9" s="188" t="s">
         <v>371</v>
       </c>
-      <c r="G9" s="261" t="s">
+      <c r="G9" s="189" t="s">
         <v>372</v>
       </c>
       <c r="H9" s="3" t="s">
@@ -6154,7 +6136,7 @@
       <c r="I9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="274"/>
+      <c r="J9" s="202"/>
       <c r="K9" s="21"/>
       <c r="L9" s="86"/>
       <c r="M9" s="87" t="s">
@@ -6164,23 +6146,23 @@
       <c r="O9" s="73"/>
     </row>
     <row r="10" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="216" t="s">
+      <c r="A10" s="234" t="s">
         <v>112</v>
       </c>
-      <c r="B10" s="217"/>
+      <c r="B10" s="235"/>
       <c r="C10" s="87" t="s">
         <v>356</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E10" s="259">
+      <c r="E10" s="187">
         <v>2015</v>
       </c>
-      <c r="F10" s="260" t="s">
+      <c r="F10" s="188" t="s">
         <v>365</v>
       </c>
-      <c r="G10" s="261" t="s">
+      <c r="G10" s="189" t="s">
         <v>366</v>
       </c>
       <c r="H10" s="3" t="s">
@@ -6189,7 +6171,7 @@
       <c r="I10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="274"/>
+      <c r="J10" s="202"/>
       <c r="K10" s="21"/>
       <c r="L10" s="86"/>
       <c r="M10" s="87"/>
@@ -6197,23 +6179,23 @@
       <c r="O10" s="73"/>
     </row>
     <row r="11" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="216" t="s">
+      <c r="A11" s="234" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="217"/>
+      <c r="B11" s="235"/>
       <c r="C11" s="87" t="s">
         <v>357</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E11" s="259">
+      <c r="E11" s="187">
         <v>2023</v>
       </c>
-      <c r="F11" s="260" t="s">
+      <c r="F11" s="188" t="s">
         <v>367</v>
       </c>
-      <c r="G11" s="261" t="s">
+      <c r="G11" s="189" t="s">
         <v>368</v>
       </c>
       <c r="H11" s="3" t="s">
@@ -6222,7 +6204,7 @@
       <c r="I11" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="274"/>
+      <c r="J11" s="202"/>
       <c r="K11" s="21"/>
       <c r="L11" s="86"/>
       <c r="M11" s="87"/>
@@ -6230,23 +6212,23 @@
       <c r="O11" s="73"/>
     </row>
     <row r="12" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="216" t="s">
+      <c r="A12" s="234" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="217"/>
+      <c r="B12" s="235"/>
       <c r="C12" s="87" t="s">
         <v>358</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E12" s="259">
+      <c r="E12" s="187">
         <v>2012</v>
       </c>
-      <c r="F12" s="260" t="s">
+      <c r="F12" s="188" t="s">
         <v>369</v>
       </c>
-      <c r="G12" s="261" t="s">
+      <c r="G12" s="189" t="s">
         <v>370</v>
       </c>
       <c r="H12" s="3" t="s">
@@ -6255,21 +6237,21 @@
       <c r="I12" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J12" s="275"/>
+      <c r="J12" s="203"/>
       <c r="K12" s="21"/>
       <c r="L12" s="86"/>
-      <c r="M12" s="274" t="s">
+      <c r="M12" s="202" t="s">
         <v>481</v>
       </c>
       <c r="N12" s="77"/>
       <c r="O12" s="73"/>
     </row>
     <row r="13" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="216" t="s">
+      <c r="A13" s="234" t="s">
         <v>113</v>
       </c>
-      <c r="B13" s="217"/>
-      <c r="C13" s="252"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="4"/>
       <c r="E13" s="42"/>
       <c r="F13" s="74"/>
@@ -6284,14 +6266,14 @@
       <c r="O13" s="73"/>
     </row>
     <row r="14" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="212" t="s">
+      <c r="A14" s="239" t="s">
         <v>114</v>
       </c>
       <c r="B14" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="253"/>
-      <c r="D14" s="255"/>
+      <c r="C14" s="184"/>
+      <c r="D14" s="186"/>
       <c r="E14" s="78"/>
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
@@ -6301,16 +6283,16 @@
       <c r="K14" s="79"/>
       <c r="L14" s="79"/>
       <c r="M14" s="98"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="188"/>
+      <c r="N14" s="264"/>
+      <c r="O14" s="264"/>
     </row>
     <row r="15" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="213"/>
+      <c r="A15" s="238"/>
       <c r="B15" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="254"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
       <c r="E15" s="45"/>
       <c r="F15" s="82"/>
       <c r="G15" s="80"/>
@@ -6320,11 +6302,11 @@
       <c r="K15" s="20"/>
       <c r="L15" s="76"/>
       <c r="M15" s="80"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
+      <c r="N15" s="265"/>
+      <c r="O15" s="265"/>
     </row>
     <row r="16" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="213"/>
+      <c r="A16" s="238"/>
       <c r="B16" s="46" t="s">
         <v>117</v>
       </c>
@@ -6334,13 +6316,13 @@
       <c r="D16" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E16" s="259">
+      <c r="E16" s="187">
         <v>2023</v>
       </c>
       <c r="F16" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="G16" s="261" t="s">
+      <c r="G16" s="189" t="s">
         <v>373</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -6353,11 +6335,11 @@
       <c r="K16" s="21"/>
       <c r="L16" s="86"/>
       <c r="M16" s="84"/>
-      <c r="N16" s="189"/>
-      <c r="O16" s="189"/>
+      <c r="N16" s="265"/>
+      <c r="O16" s="265"/>
     </row>
     <row r="17" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="213"/>
+      <c r="A17" s="238"/>
       <c r="B17" s="46" t="s">
         <v>118</v>
       </c>
@@ -6372,11 +6354,11 @@
       <c r="K17" s="21"/>
       <c r="L17" s="86"/>
       <c r="M17" s="84"/>
-      <c r="N17" s="189"/>
-      <c r="O17" s="189"/>
+      <c r="N17" s="265"/>
+      <c r="O17" s="265"/>
     </row>
     <row r="18" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="214"/>
+      <c r="A18" s="229"/>
       <c r="B18" s="48" t="s">
         <v>119</v>
       </c>
@@ -6391,11 +6373,11 @@
       <c r="K18" s="22"/>
       <c r="L18" s="90"/>
       <c r="M18" s="88"/>
-      <c r="N18" s="190"/>
-      <c r="O18" s="190"/>
+      <c r="N18" s="266"/>
+      <c r="O18" s="266"/>
     </row>
     <row r="19" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="212" t="s">
+      <c r="A19" s="239" t="s">
         <v>120</v>
       </c>
       <c r="B19" s="142" t="s">
@@ -6412,11 +6394,11 @@
       <c r="K19" s="93"/>
       <c r="L19" s="93"/>
       <c r="M19" s="98"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="191"/>
+      <c r="N19" s="267"/>
+      <c r="O19" s="267"/>
     </row>
     <row r="20" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="213"/>
+      <c r="A20" s="238"/>
       <c r="B20" s="94" t="s">
         <v>122</v>
       </c>
@@ -6431,11 +6413,11 @@
       <c r="K20" s="20"/>
       <c r="L20" s="96"/>
       <c r="M20" s="95"/>
-      <c r="N20" s="192"/>
-      <c r="O20" s="192"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="268"/>
     </row>
     <row r="21" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="213"/>
+      <c r="A21" s="238"/>
       <c r="B21" s="97" t="s">
         <v>123</v>
       </c>
@@ -6445,13 +6427,13 @@
       <c r="D21" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E21" s="259">
+      <c r="E21" s="187">
         <v>2023</v>
       </c>
       <c r="F21" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="G21" s="262" t="s">
+      <c r="G21" s="190" t="s">
         <v>389</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -6460,17 +6442,17 @@
       <c r="I21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J21" s="263" t="s">
+      <c r="J21" s="191" t="s">
         <v>390</v>
       </c>
       <c r="K21" s="21"/>
       <c r="L21" s="86"/>
       <c r="M21" s="84"/>
-      <c r="N21" s="192"/>
-      <c r="O21" s="192"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="268"/>
     </row>
     <row r="22" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="213"/>
+      <c r="A22" s="238"/>
       <c r="B22" s="97" t="s">
         <v>119</v>
       </c>
@@ -6485,11 +6467,11 @@
       <c r="K22" s="22"/>
       <c r="L22" s="86"/>
       <c r="M22" s="84"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="192"/>
+      <c r="N22" s="268"/>
+      <c r="O22" s="268"/>
     </row>
     <row r="23" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="213"/>
+      <c r="A23" s="238"/>
       <c r="B23" s="43" t="s">
         <v>124</v>
       </c>
@@ -6504,11 +6486,11 @@
       <c r="K23" s="99"/>
       <c r="L23" s="99"/>
       <c r="M23" s="92"/>
-      <c r="N23" s="192"/>
-      <c r="O23" s="192"/>
+      <c r="N23" s="268"/>
+      <c r="O23" s="268"/>
     </row>
     <row r="24" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="213"/>
+      <c r="A24" s="238"/>
       <c r="B24" s="94" t="s">
         <v>125</v>
       </c>
@@ -6523,11 +6505,11 @@
       <c r="K24" s="20"/>
       <c r="L24" s="86"/>
       <c r="M24" s="84"/>
-      <c r="N24" s="192"/>
-      <c r="O24" s="192"/>
+      <c r="N24" s="268"/>
+      <c r="O24" s="268"/>
     </row>
     <row r="25" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="213"/>
+      <c r="A25" s="238"/>
       <c r="B25" s="97" t="s">
         <v>126</v>
       </c>
@@ -6542,11 +6524,11 @@
       <c r="K25" s="21"/>
       <c r="L25" s="86"/>
       <c r="M25" s="84"/>
-      <c r="N25" s="192"/>
-      <c r="O25" s="192"/>
+      <c r="N25" s="268"/>
+      <c r="O25" s="268"/>
     </row>
     <row r="26" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="214"/>
+      <c r="A26" s="229"/>
       <c r="B26" s="100" t="s">
         <v>119</v>
       </c>
@@ -6561,14 +6543,14 @@
       <c r="K26" s="22"/>
       <c r="L26" s="102"/>
       <c r="M26" s="101"/>
-      <c r="N26" s="193"/>
-      <c r="O26" s="193"/>
+      <c r="N26" s="269"/>
+      <c r="O26" s="269"/>
     </row>
     <row r="27" spans="1:15" s="138" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="205" t="s">
+      <c r="A27" s="236" t="s">
         <v>292</v>
       </c>
-      <c r="B27" s="206"/>
+      <c r="B27" s="237"/>
       <c r="C27" s="139"/>
       <c r="D27" s="140"/>
       <c r="E27" s="140"/>
@@ -6584,7 +6566,7 @@
       <c r="O27" s="137"/>
     </row>
     <row r="28" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="212" t="s">
+      <c r="A28" s="239" t="s">
         <v>302</v>
       </c>
       <c r="B28" s="43" t="s">
@@ -6601,11 +6583,11 @@
       <c r="K28" s="99"/>
       <c r="L28" s="99"/>
       <c r="M28" s="98"/>
-      <c r="N28" s="191"/>
-      <c r="O28" s="191"/>
+      <c r="N28" s="267"/>
+      <c r="O28" s="267"/>
     </row>
     <row r="29" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="213"/>
+      <c r="A29" s="238"/>
       <c r="B29" s="94" t="s">
         <v>160</v>
       </c>
@@ -6615,13 +6597,13 @@
       <c r="D29" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E29" s="259">
+      <c r="E29" s="187">
         <v>2009</v>
       </c>
       <c r="F29" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G29" s="264" t="s">
+      <c r="G29" s="192" t="s">
         <v>455</v>
       </c>
       <c r="H29" s="3" t="s">
@@ -6630,7 +6612,7 @@
       <c r="I29" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="263" t="s">
+      <c r="J29" s="191" t="s">
         <v>456</v>
       </c>
       <c r="K29" s="20"/>
@@ -6638,11 +6620,11 @@
       <c r="M29" s="87" t="s">
         <v>457</v>
       </c>
-      <c r="N29" s="192"/>
-      <c r="O29" s="192"/>
+      <c r="N29" s="268"/>
+      <c r="O29" s="268"/>
     </row>
     <row r="30" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="213"/>
+      <c r="A30" s="238"/>
       <c r="B30" s="94" t="s">
         <v>161</v>
       </c>
@@ -6652,13 +6634,13 @@
       <c r="D30" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E30" s="259">
+      <c r="E30" s="187">
         <v>2009</v>
       </c>
       <c r="F30" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G30" s="263" t="s">
+      <c r="G30" s="191" t="s">
         <v>458</v>
       </c>
       <c r="H30" s="3" t="s">
@@ -6667,7 +6649,7 @@
       <c r="I30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J30" s="263" t="s">
+      <c r="J30" s="191" t="s">
         <v>459</v>
       </c>
       <c r="K30" s="27"/>
@@ -6675,11 +6657,11 @@
       <c r="M30" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="N30" s="192"/>
-      <c r="O30" s="192"/>
+      <c r="N30" s="268"/>
+      <c r="O30" s="268"/>
     </row>
     <row r="31" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="213"/>
+      <c r="A31" s="238"/>
       <c r="B31" s="97" t="s">
         <v>119</v>
       </c>
@@ -6694,11 +6676,11 @@
       <c r="K31" s="22"/>
       <c r="L31" s="86"/>
       <c r="M31" s="84"/>
-      <c r="N31" s="192"/>
-      <c r="O31" s="192"/>
+      <c r="N31" s="268"/>
+      <c r="O31" s="268"/>
     </row>
     <row r="32" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="213"/>
+      <c r="A32" s="238"/>
       <c r="B32" s="43" t="s">
         <v>102</v>
       </c>
@@ -6713,11 +6695,11 @@
       <c r="K32" s="99"/>
       <c r="L32" s="99"/>
       <c r="M32" s="98"/>
-      <c r="N32" s="192"/>
-      <c r="O32" s="192"/>
+      <c r="N32" s="268"/>
+      <c r="O32" s="268"/>
     </row>
     <row r="33" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="213"/>
+      <c r="A33" s="238"/>
       <c r="B33" s="94" t="s">
         <v>162</v>
       </c>
@@ -6732,11 +6714,11 @@
       <c r="K33" s="20"/>
       <c r="L33" s="86"/>
       <c r="M33" s="84"/>
-      <c r="N33" s="192"/>
-      <c r="O33" s="192"/>
+      <c r="N33" s="268"/>
+      <c r="O33" s="268"/>
     </row>
     <row r="34" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="213"/>
+      <c r="A34" s="238"/>
       <c r="B34" s="143" t="s">
         <v>163</v>
       </c>
@@ -6751,11 +6733,11 @@
       <c r="K34" s="27"/>
       <c r="L34" s="102"/>
       <c r="M34" s="101"/>
-      <c r="N34" s="192"/>
-      <c r="O34" s="192"/>
+      <c r="N34" s="268"/>
+      <c r="O34" s="268"/>
     </row>
     <row r="35" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="214"/>
+      <c r="A35" s="229"/>
       <c r="B35" s="105" t="s">
         <v>119</v>
       </c>
@@ -6770,11 +6752,11 @@
       <c r="K35" s="22"/>
       <c r="L35" s="90"/>
       <c r="M35" s="88"/>
-      <c r="N35" s="193"/>
-      <c r="O35" s="193"/>
+      <c r="N35" s="269"/>
+      <c r="O35" s="269"/>
     </row>
     <row r="36" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="212" t="s">
+      <c r="A36" s="239" t="s">
         <v>300</v>
       </c>
       <c r="B36" s="43" t="s">
@@ -6791,11 +6773,11 @@
       <c r="K36" s="99"/>
       <c r="L36" s="99"/>
       <c r="M36" s="98"/>
-      <c r="N36" s="188"/>
-      <c r="O36" s="188"/>
+      <c r="N36" s="264"/>
+      <c r="O36" s="264"/>
     </row>
     <row r="37" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="213"/>
+      <c r="A37" s="238"/>
       <c r="B37" s="94" t="s">
         <v>150</v>
       </c>
@@ -6805,13 +6787,13 @@
       <c r="D37" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E37" s="259">
+      <c r="E37" s="187">
         <v>2023</v>
       </c>
       <c r="F37" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="G37" s="264" t="s">
+      <c r="G37" s="192" t="s">
         <v>434</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -6820,36 +6802,36 @@
       <c r="I37" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J37" s="263" t="s">
+      <c r="J37" s="191" t="s">
         <v>435</v>
       </c>
       <c r="K37" s="20"/>
       <c r="L37" s="86"/>
       <c r="M37" s="84"/>
-      <c r="N37" s="189"/>
-      <c r="O37" s="189"/>
+      <c r="N37" s="265"/>
+      <c r="O37" s="265"/>
     </row>
     <row r="38" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="213"/>
+      <c r="A38" s="238"/>
       <c r="B38" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="C38" s="267"/>
-      <c r="D38" s="267"/>
-      <c r="E38" s="259"/>
-      <c r="F38" s="267"/>
-      <c r="G38" s="267"/>
+      <c r="C38" s="195"/>
+      <c r="D38" s="195"/>
+      <c r="E38" s="187"/>
+      <c r="F38" s="195"/>
+      <c r="G38" s="195"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="268"/>
+      <c r="J38" s="196"/>
       <c r="K38" s="21"/>
       <c r="L38" s="86"/>
       <c r="M38" s="84"/>
-      <c r="N38" s="189"/>
-      <c r="O38" s="189"/>
+      <c r="N38" s="265"/>
+      <c r="O38" s="265"/>
     </row>
     <row r="39" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="213"/>
+      <c r="A39" s="238"/>
       <c r="B39" s="97" t="s">
         <v>152</v>
       </c>
@@ -6859,13 +6841,13 @@
       <c r="D39" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E39" s="259">
+      <c r="E39" s="187">
         <v>2023</v>
       </c>
       <c r="F39" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="G39" s="264" t="s">
+      <c r="G39" s="192" t="s">
         <v>436</v>
       </c>
       <c r="H39" s="3" t="s">
@@ -6874,17 +6856,17 @@
       <c r="I39" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J39" s="263" t="s">
+      <c r="J39" s="191" t="s">
         <v>437</v>
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="86"/>
       <c r="M39" s="84"/>
-      <c r="N39" s="189"/>
-      <c r="O39" s="189"/>
+      <c r="N39" s="265"/>
+      <c r="O39" s="265"/>
     </row>
     <row r="40" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="213"/>
+      <c r="A40" s="238"/>
       <c r="B40" s="97" t="s">
         <v>153</v>
       </c>
@@ -6899,11 +6881,11 @@
       <c r="K40" s="23"/>
       <c r="L40" s="86"/>
       <c r="M40" s="84"/>
-      <c r="N40" s="189"/>
-      <c r="O40" s="189"/>
+      <c r="N40" s="265"/>
+      <c r="O40" s="265"/>
     </row>
     <row r="41" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="213"/>
+      <c r="A41" s="238"/>
       <c r="B41" s="97" t="s">
         <v>154</v>
       </c>
@@ -6918,11 +6900,11 @@
       <c r="K41" s="23"/>
       <c r="L41" s="86"/>
       <c r="M41" s="84"/>
-      <c r="N41" s="189"/>
-      <c r="O41" s="189"/>
+      <c r="N41" s="265"/>
+      <c r="O41" s="265"/>
     </row>
     <row r="42" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="213"/>
+      <c r="A42" s="238"/>
       <c r="B42" s="97" t="s">
         <v>119</v>
       </c>
@@ -6937,11 +6919,11 @@
       <c r="K42" s="22"/>
       <c r="L42" s="86"/>
       <c r="M42" s="84"/>
-      <c r="N42" s="189"/>
-      <c r="O42" s="189"/>
+      <c r="N42" s="265"/>
+      <c r="O42" s="265"/>
     </row>
     <row r="43" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="213"/>
+      <c r="A43" s="238"/>
       <c r="B43" s="43" t="s">
         <v>102</v>
       </c>
@@ -6956,11 +6938,11 @@
       <c r="K43" s="99"/>
       <c r="L43" s="99"/>
       <c r="M43" s="98"/>
-      <c r="N43" s="189"/>
-      <c r="O43" s="189"/>
+      <c r="N43" s="265"/>
+      <c r="O43" s="265"/>
     </row>
     <row r="44" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="213"/>
+      <c r="A44" s="238"/>
       <c r="B44" s="94" t="s">
         <v>155</v>
       </c>
@@ -6975,11 +6957,11 @@
       <c r="K44" s="20"/>
       <c r="L44" s="86"/>
       <c r="M44" s="84"/>
-      <c r="N44" s="189"/>
-      <c r="O44" s="189"/>
+      <c r="N44" s="265"/>
+      <c r="O44" s="265"/>
     </row>
     <row r="45" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="214"/>
+      <c r="A45" s="229"/>
       <c r="B45" s="105" t="s">
         <v>119</v>
       </c>
@@ -6994,11 +6976,11 @@
       <c r="K45" s="22"/>
       <c r="L45" s="90"/>
       <c r="M45" s="88"/>
-      <c r="N45" s="190"/>
-      <c r="O45" s="190"/>
+      <c r="N45" s="266"/>
+      <c r="O45" s="266"/>
     </row>
     <row r="46" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="212" t="s">
+      <c r="A46" s="239" t="s">
         <v>303</v>
       </c>
       <c r="B46" s="43" t="s">
@@ -7015,11 +6997,11 @@
       <c r="K46" s="99"/>
       <c r="L46" s="99"/>
       <c r="M46" s="98"/>
-      <c r="N46" s="188"/>
-      <c r="O46" s="188"/>
+      <c r="N46" s="264"/>
+      <c r="O46" s="264"/>
     </row>
     <row r="47" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="213"/>
+      <c r="A47" s="238"/>
       <c r="B47" s="94" t="s">
         <v>164</v>
       </c>
@@ -7029,13 +7011,13 @@
       <c r="D47" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E47" s="259">
+      <c r="E47" s="187">
         <v>2023</v>
       </c>
       <c r="F47" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="G47" s="264" t="s">
+      <c r="G47" s="192" t="s">
         <v>461</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -7044,17 +7026,17 @@
       <c r="I47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J47" s="266" t="s">
+      <c r="J47" s="194" t="s">
         <v>462</v>
       </c>
       <c r="K47" s="20"/>
       <c r="L47" s="96"/>
       <c r="M47" s="95"/>
-      <c r="N47" s="189"/>
-      <c r="O47" s="189"/>
+      <c r="N47" s="265"/>
+      <c r="O47" s="265"/>
     </row>
     <row r="48" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="213"/>
+      <c r="A48" s="238"/>
       <c r="B48" s="94" t="s">
         <v>165</v>
       </c>
@@ -7064,7 +7046,7 @@
       <c r="D48" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="E48" s="270">
+      <c r="E48" s="198">
         <v>2018</v>
       </c>
       <c r="F48" s="84" t="s">
@@ -7083,11 +7065,11 @@
       <c r="K48" s="27"/>
       <c r="L48" s="96"/>
       <c r="M48" s="95"/>
-      <c r="N48" s="189"/>
-      <c r="O48" s="189"/>
+      <c r="N48" s="265"/>
+      <c r="O48" s="265"/>
     </row>
     <row r="49" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="213"/>
+      <c r="A49" s="238"/>
       <c r="B49" s="97" t="s">
         <v>119</v>
       </c>
@@ -7102,11 +7084,11 @@
       <c r="K49" s="22"/>
       <c r="L49" s="86"/>
       <c r="M49" s="84"/>
-      <c r="N49" s="189"/>
-      <c r="O49" s="189"/>
+      <c r="N49" s="265"/>
+      <c r="O49" s="265"/>
     </row>
     <row r="50" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="213"/>
+      <c r="A50" s="238"/>
       <c r="B50" s="43" t="s">
         <v>102</v>
       </c>
@@ -7121,11 +7103,11 @@
       <c r="K50" s="99"/>
       <c r="L50" s="99"/>
       <c r="M50" s="98"/>
-      <c r="N50" s="189"/>
-      <c r="O50" s="189"/>
+      <c r="N50" s="265"/>
+      <c r="O50" s="265"/>
     </row>
     <row r="51" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="213"/>
+      <c r="A51" s="238"/>
       <c r="B51" s="94" t="s">
         <v>166</v>
       </c>
@@ -7140,11 +7122,11 @@
       <c r="K51" s="20"/>
       <c r="L51" s="86"/>
       <c r="M51" s="84"/>
-      <c r="N51" s="189"/>
-      <c r="O51" s="189"/>
+      <c r="N51" s="265"/>
+      <c r="O51" s="265"/>
     </row>
     <row r="52" spans="1:15" s="71" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="213"/>
+      <c r="A52" s="238"/>
       <c r="B52" s="100" t="s">
         <v>167</v>
       </c>
@@ -7159,11 +7141,11 @@
       <c r="K52" s="23"/>
       <c r="L52" s="102"/>
       <c r="M52" s="101"/>
-      <c r="N52" s="189"/>
-      <c r="O52" s="189"/>
+      <c r="N52" s="265"/>
+      <c r="O52" s="265"/>
     </row>
     <row r="53" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="214"/>
+      <c r="A53" s="229"/>
       <c r="B53" s="105" t="s">
         <v>119</v>
       </c>
@@ -7178,11 +7160,11 @@
       <c r="K53" s="22"/>
       <c r="L53" s="90"/>
       <c r="M53" s="88"/>
-      <c r="N53" s="190"/>
-      <c r="O53" s="190"/>
+      <c r="N53" s="266"/>
+      <c r="O53" s="266"/>
     </row>
     <row r="54" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="212" t="s">
+      <c r="A54" s="239" t="s">
         <v>301</v>
       </c>
       <c r="B54" s="43" t="s">
@@ -7199,11 +7181,11 @@
       <c r="K54" s="99"/>
       <c r="L54" s="99"/>
       <c r="M54" s="98"/>
-      <c r="N54" s="188"/>
-      <c r="O54" s="188"/>
+      <c r="N54" s="264"/>
+      <c r="O54" s="264"/>
     </row>
     <row r="55" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="213"/>
+      <c r="A55" s="238"/>
       <c r="B55" s="94" t="s">
         <v>156</v>
       </c>
@@ -7213,7 +7195,7 @@
       <c r="D55" s="80" t="s">
         <v>362</v>
       </c>
-      <c r="E55" s="265">
+      <c r="E55" s="193">
         <v>2016</v>
       </c>
       <c r="F55" s="84" t="s">
@@ -7228,17 +7210,17 @@
       <c r="I55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J55" s="263" t="s">
+      <c r="J55" s="191" t="s">
         <v>441</v>
       </c>
       <c r="K55" s="20"/>
       <c r="L55" s="86"/>
       <c r="M55" s="84"/>
-      <c r="N55" s="189"/>
-      <c r="O55" s="189"/>
+      <c r="N55" s="265"/>
+      <c r="O55" s="265"/>
     </row>
     <row r="56" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="213"/>
+      <c r="A56" s="238"/>
       <c r="B56" s="94" t="s">
         <v>156</v>
       </c>
@@ -7248,13 +7230,13 @@
       <c r="D56" s="95" t="s">
         <v>360</v>
       </c>
-      <c r="E56" s="270">
+      <c r="E56" s="198">
         <v>2018</v>
       </c>
       <c r="F56" s="84" t="s">
         <v>443</v>
       </c>
-      <c r="G56" s="264" t="s">
+      <c r="G56" s="192" t="s">
         <v>444</v>
       </c>
       <c r="H56" s="8" t="s">
@@ -7263,15 +7245,15 @@
       <c r="I56" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="J56" s="263"/>
+      <c r="J56" s="191"/>
       <c r="K56" s="20"/>
       <c r="L56" s="86"/>
       <c r="M56" s="84"/>
-      <c r="N56" s="189"/>
-      <c r="O56" s="189"/>
+      <c r="N56" s="265"/>
+      <c r="O56" s="265"/>
     </row>
     <row r="57" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="213"/>
+      <c r="A57" s="238"/>
       <c r="B57" s="94" t="s">
         <v>156</v>
       </c>
@@ -7281,7 +7263,7 @@
       <c r="D57" s="95" t="s">
         <v>361</v>
       </c>
-      <c r="E57" s="270">
+      <c r="E57" s="198">
         <v>2023</v>
       </c>
       <c r="F57" s="84" t="s">
@@ -7296,17 +7278,17 @@
       <c r="I57" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J57" s="263" t="s">
+      <c r="J57" s="191" t="s">
         <v>448</v>
       </c>
       <c r="K57" s="20"/>
       <c r="L57" s="86"/>
       <c r="M57" s="84"/>
-      <c r="N57" s="189"/>
-      <c r="O57" s="189"/>
+      <c r="N57" s="265"/>
+      <c r="O57" s="265"/>
     </row>
     <row r="58" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="213"/>
+      <c r="A58" s="238"/>
       <c r="B58" s="97" t="s">
         <v>157</v>
       </c>
@@ -7316,13 +7298,13 @@
       <c r="D58" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E58" s="259">
+      <c r="E58" s="187">
         <v>2016</v>
       </c>
       <c r="F58" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="G58" s="264" t="s">
+      <c r="G58" s="192" t="s">
         <v>449</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -7331,17 +7313,17 @@
       <c r="I58" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J58" s="263" t="s">
+      <c r="J58" s="191" t="s">
         <v>441</v>
       </c>
       <c r="K58" s="21"/>
       <c r="L58" s="86"/>
       <c r="M58" s="84"/>
-      <c r="N58" s="189"/>
-      <c r="O58" s="189"/>
+      <c r="N58" s="265"/>
+      <c r="O58" s="265"/>
     </row>
     <row r="59" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="213"/>
+      <c r="A59" s="238"/>
       <c r="B59" s="97" t="s">
         <v>157</v>
       </c>
@@ -7351,13 +7333,13 @@
       <c r="D59" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="E59" s="259">
+      <c r="E59" s="187">
         <v>2018</v>
       </c>
       <c r="F59" s="84" t="s">
         <v>443</v>
       </c>
-      <c r="G59" s="264" t="s">
+      <c r="G59" s="192" t="s">
         <v>450</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -7366,17 +7348,17 @@
       <c r="I59" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J59" s="263" t="s">
+      <c r="J59" s="191" t="s">
         <v>451</v>
       </c>
       <c r="K59" s="21"/>
       <c r="L59" s="86"/>
       <c r="M59" s="84"/>
-      <c r="N59" s="189"/>
-      <c r="O59" s="189"/>
+      <c r="N59" s="265"/>
+      <c r="O59" s="265"/>
     </row>
     <row r="60" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="213"/>
+      <c r="A60" s="238"/>
       <c r="B60" s="97" t="s">
         <v>158</v>
       </c>
@@ -7386,13 +7368,13 @@
       <c r="D60" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E60" s="259">
+      <c r="E60" s="187">
         <v>2016</v>
       </c>
       <c r="F60" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="G60" s="264" t="s">
+      <c r="G60" s="192" t="s">
         <v>452</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -7405,11 +7387,11 @@
       <c r="K60" s="21"/>
       <c r="L60" s="86"/>
       <c r="M60" s="84"/>
-      <c r="N60" s="189"/>
-      <c r="O60" s="189"/>
+      <c r="N60" s="265"/>
+      <c r="O60" s="265"/>
     </row>
     <row r="61" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="213"/>
+      <c r="A61" s="238"/>
       <c r="B61" s="97" t="s">
         <v>158</v>
       </c>
@@ -7419,13 +7401,13 @@
       <c r="D61" s="101" t="s">
         <v>360</v>
       </c>
-      <c r="E61" s="271">
+      <c r="E61" s="199">
         <v>2018</v>
       </c>
       <c r="F61" s="84" t="s">
         <v>443</v>
       </c>
-      <c r="G61" s="264" t="s">
+      <c r="G61" s="192" t="s">
         <v>453</v>
       </c>
       <c r="H61" s="10" t="s">
@@ -7438,11 +7420,11 @@
       <c r="K61" s="21"/>
       <c r="L61" s="86"/>
       <c r="M61" s="84"/>
-      <c r="N61" s="189"/>
-      <c r="O61" s="189"/>
+      <c r="N61" s="265"/>
+      <c r="O61" s="265"/>
     </row>
     <row r="62" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="213"/>
+      <c r="A62" s="238"/>
       <c r="B62" s="97" t="s">
         <v>119</v>
       </c>
@@ -7452,13 +7434,13 @@
       <c r="D62" s="101" t="s">
         <v>360</v>
       </c>
-      <c r="E62" s="271">
+      <c r="E62" s="199">
         <v>2018</v>
       </c>
       <c r="F62" s="84" t="s">
         <v>443</v>
       </c>
-      <c r="G62" s="264" t="s">
+      <c r="G62" s="192" t="s">
         <v>454</v>
       </c>
       <c r="H62" s="4" t="s">
@@ -7471,11 +7453,11 @@
       <c r="K62" s="22"/>
       <c r="L62" s="86"/>
       <c r="M62" s="84"/>
-      <c r="N62" s="189"/>
-      <c r="O62" s="189"/>
+      <c r="N62" s="265"/>
+      <c r="O62" s="265"/>
     </row>
     <row r="63" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="213"/>
+      <c r="A63" s="238"/>
       <c r="B63" s="43" t="s">
         <v>102</v>
       </c>
@@ -7490,11 +7472,11 @@
       <c r="K63" s="99"/>
       <c r="L63" s="99"/>
       <c r="M63" s="98"/>
-      <c r="N63" s="189"/>
-      <c r="O63" s="189"/>
+      <c r="N63" s="265"/>
+      <c r="O63" s="265"/>
     </row>
     <row r="64" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="213"/>
+      <c r="A64" s="238"/>
       <c r="B64" s="94" t="s">
         <v>159</v>
       </c>
@@ -7509,11 +7491,11 @@
       <c r="K64" s="20"/>
       <c r="L64" s="86"/>
       <c r="M64" s="84"/>
-      <c r="N64" s="189"/>
-      <c r="O64" s="189"/>
+      <c r="N64" s="265"/>
+      <c r="O64" s="265"/>
     </row>
     <row r="65" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="214"/>
+      <c r="A65" s="229"/>
       <c r="B65" s="105" t="s">
         <v>119</v>
       </c>
@@ -7528,11 +7510,11 @@
       <c r="K65" s="22"/>
       <c r="L65" s="90"/>
       <c r="M65" s="88"/>
-      <c r="N65" s="190"/>
-      <c r="O65" s="190"/>
+      <c r="N65" s="266"/>
+      <c r="O65" s="266"/>
     </row>
     <row r="66" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="212" t="s">
+      <c r="A66" s="239" t="s">
         <v>299</v>
       </c>
       <c r="B66" s="43" t="s">
@@ -7549,11 +7531,11 @@
       <c r="K66" s="99"/>
       <c r="L66" s="99"/>
       <c r="M66" s="98"/>
-      <c r="N66" s="188"/>
-      <c r="O66" s="188"/>
+      <c r="N66" s="264"/>
+      <c r="O66" s="264"/>
     </row>
     <row r="67" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="213"/>
+      <c r="A67" s="238"/>
       <c r="B67" s="94" t="s">
         <v>142</v>
       </c>
@@ -7563,13 +7545,13 @@
       <c r="D67" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E67" s="259">
+      <c r="E67" s="187">
         <v>2023</v>
       </c>
       <c r="F67" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="G67" s="264" t="s">
+      <c r="G67" s="192" t="s">
         <v>430</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -7578,36 +7560,36 @@
       <c r="I67" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J67" s="263" t="s">
+      <c r="J67" s="191" t="s">
         <v>431</v>
       </c>
       <c r="K67" s="20"/>
       <c r="L67" s="86"/>
       <c r="M67" s="84"/>
-      <c r="N67" s="189"/>
-      <c r="O67" s="189"/>
+      <c r="N67" s="265"/>
+      <c r="O67" s="265"/>
     </row>
     <row r="68" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="213"/>
+      <c r="A68" s="238"/>
       <c r="B68" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="267"/>
-      <c r="D68" s="267"/>
-      <c r="E68" s="259"/>
-      <c r="F68" s="267"/>
-      <c r="G68" s="267"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="187"/>
+      <c r="F68" s="195"/>
+      <c r="G68" s="195"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="268"/>
+      <c r="J68" s="196"/>
       <c r="K68" s="21"/>
       <c r="L68" s="86"/>
       <c r="M68" s="84"/>
-      <c r="N68" s="189"/>
-      <c r="O68" s="189"/>
+      <c r="N68" s="265"/>
+      <c r="O68" s="265"/>
     </row>
     <row r="69" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="213"/>
+      <c r="A69" s="238"/>
       <c r="B69" s="97" t="s">
         <v>144</v>
       </c>
@@ -7617,13 +7599,13 @@
       <c r="D69" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E69" s="259">
+      <c r="E69" s="187">
         <v>2023</v>
       </c>
       <c r="F69" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="G69" s="264" t="s">
+      <c r="G69" s="192" t="s">
         <v>430</v>
       </c>
       <c r="H69" s="3" t="s">
@@ -7632,17 +7614,17 @@
       <c r="I69" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J69" s="263" t="s">
+      <c r="J69" s="191" t="s">
         <v>432</v>
       </c>
       <c r="K69" s="21"/>
       <c r="L69" s="86"/>
       <c r="M69" s="84"/>
-      <c r="N69" s="189"/>
-      <c r="O69" s="189"/>
+      <c r="N69" s="265"/>
+      <c r="O69" s="265"/>
     </row>
     <row r="70" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="213"/>
+      <c r="A70" s="238"/>
       <c r="B70" s="97" t="s">
         <v>145</v>
       </c>
@@ -7657,11 +7639,11 @@
       <c r="K70" s="21"/>
       <c r="L70" s="86"/>
       <c r="M70" s="84"/>
-      <c r="N70" s="189"/>
-      <c r="O70" s="189"/>
+      <c r="N70" s="265"/>
+      <c r="O70" s="265"/>
     </row>
     <row r="71" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="213"/>
+      <c r="A71" s="238"/>
       <c r="B71" s="97" t="s">
         <v>146</v>
       </c>
@@ -7676,11 +7658,11 @@
       <c r="K71" s="21"/>
       <c r="L71" s="86"/>
       <c r="M71" s="84"/>
-      <c r="N71" s="189"/>
-      <c r="O71" s="189"/>
+      <c r="N71" s="265"/>
+      <c r="O71" s="265"/>
     </row>
     <row r="72" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="213"/>
+      <c r="A72" s="238"/>
       <c r="B72" s="97" t="s">
         <v>147</v>
       </c>
@@ -7695,11 +7677,11 @@
       <c r="K72" s="21"/>
       <c r="L72" s="86"/>
       <c r="M72" s="84"/>
-      <c r="N72" s="189"/>
-      <c r="O72" s="189"/>
+      <c r="N72" s="265"/>
+      <c r="O72" s="265"/>
     </row>
     <row r="73" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="213"/>
+      <c r="A73" s="238"/>
       <c r="B73" s="97" t="s">
         <v>119</v>
       </c>
@@ -7714,11 +7696,11 @@
       <c r="K73" s="22"/>
       <c r="L73" s="86"/>
       <c r="M73" s="84"/>
-      <c r="N73" s="189"/>
-      <c r="O73" s="189"/>
+      <c r="N73" s="265"/>
+      <c r="O73" s="265"/>
     </row>
     <row r="74" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="213"/>
+      <c r="A74" s="238"/>
       <c r="B74" s="43" t="s">
         <v>102</v>
       </c>
@@ -7733,11 +7715,11 @@
       <c r="K74" s="99"/>
       <c r="L74" s="99"/>
       <c r="M74" s="98"/>
-      <c r="N74" s="189"/>
-      <c r="O74" s="189"/>
+      <c r="N74" s="265"/>
+      <c r="O74" s="265"/>
     </row>
     <row r="75" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="213"/>
+      <c r="A75" s="238"/>
       <c r="B75" s="94" t="s">
         <v>148</v>
       </c>
@@ -7752,11 +7734,11 @@
       <c r="K75" s="20"/>
       <c r="L75" s="86"/>
       <c r="M75" s="84"/>
-      <c r="N75" s="189"/>
-      <c r="O75" s="189"/>
+      <c r="N75" s="265"/>
+      <c r="O75" s="265"/>
     </row>
     <row r="76" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="213"/>
+      <c r="A76" s="238"/>
       <c r="B76" s="97" t="s">
         <v>149</v>
       </c>
@@ -7771,11 +7753,11 @@
       <c r="K76" s="21"/>
       <c r="L76" s="86"/>
       <c r="M76" s="84"/>
-      <c r="N76" s="189"/>
-      <c r="O76" s="189"/>
+      <c r="N76" s="265"/>
+      <c r="O76" s="265"/>
     </row>
     <row r="77" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="214"/>
+      <c r="A77" s="229"/>
       <c r="B77" s="105" t="s">
         <v>119</v>
       </c>
@@ -7790,11 +7772,11 @@
       <c r="K77" s="22"/>
       <c r="L77" s="90"/>
       <c r="M77" s="88"/>
-      <c r="N77" s="190"/>
-      <c r="O77" s="190"/>
+      <c r="N77" s="266"/>
+      <c r="O77" s="266"/>
     </row>
     <row r="78" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="212" t="s">
+      <c r="A78" s="239" t="s">
         <v>133</v>
       </c>
       <c r="B78" s="142" t="s">
@@ -7811,11 +7793,11 @@
       <c r="K78" s="93"/>
       <c r="L78" s="93"/>
       <c r="M78" s="92"/>
-      <c r="N78" s="188"/>
-      <c r="O78" s="188"/>
+      <c r="N78" s="264"/>
+      <c r="O78" s="264"/>
     </row>
     <row r="79" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="213"/>
+      <c r="A79" s="238"/>
       <c r="B79" s="94" t="s">
         <v>134</v>
       </c>
@@ -7830,11 +7812,11 @@
       <c r="K79" s="20"/>
       <c r="L79" s="96"/>
       <c r="M79" s="95"/>
-      <c r="N79" s="189"/>
-      <c r="O79" s="189"/>
+      <c r="N79" s="265"/>
+      <c r="O79" s="265"/>
     </row>
     <row r="80" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="213"/>
+      <c r="A80" s="238"/>
       <c r="B80" s="97" t="s">
         <v>135</v>
       </c>
@@ -7844,13 +7826,13 @@
       <c r="D80" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E80" s="259">
+      <c r="E80" s="187">
         <v>2011</v>
       </c>
       <c r="F80" s="84" t="s">
         <v>410</v>
       </c>
-      <c r="G80" s="264" t="s">
+      <c r="G80" s="192" t="s">
         <v>411</v>
       </c>
       <c r="H80" s="3" t="s">
@@ -7863,30 +7845,30 @@
       <c r="K80" s="21"/>
       <c r="L80" s="86"/>
       <c r="M80" s="84"/>
-      <c r="N80" s="189"/>
-      <c r="O80" s="189"/>
+      <c r="N80" s="265"/>
+      <c r="O80" s="265"/>
     </row>
     <row r="81" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="213"/>
+      <c r="A81" s="238"/>
       <c r="B81" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="267"/>
-      <c r="D81" s="267"/>
-      <c r="E81" s="259"/>
-      <c r="F81" s="267"/>
-      <c r="G81" s="267"/>
+      <c r="C81" s="195"/>
+      <c r="D81" s="195"/>
+      <c r="E81" s="187"/>
+      <c r="F81" s="195"/>
+      <c r="G81" s="195"/>
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="86"/>
       <c r="K81" s="21"/>
       <c r="L81" s="86"/>
       <c r="M81" s="84"/>
-      <c r="N81" s="189"/>
-      <c r="O81" s="189"/>
+      <c r="N81" s="265"/>
+      <c r="O81" s="265"/>
     </row>
     <row r="82" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="213"/>
+      <c r="A82" s="238"/>
       <c r="B82" s="97" t="s">
         <v>137</v>
       </c>
@@ -7896,13 +7878,13 @@
       <c r="D82" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E82" s="259">
+      <c r="E82" s="187">
         <v>2011</v>
       </c>
       <c r="F82" s="84" t="s">
         <v>410</v>
       </c>
-      <c r="G82" s="264" t="s">
+      <c r="G82" s="192" t="s">
         <v>412</v>
       </c>
       <c r="H82" s="3" t="s">
@@ -7915,11 +7897,11 @@
       <c r="K82" s="21"/>
       <c r="L82" s="86"/>
       <c r="M82" s="84"/>
-      <c r="N82" s="189"/>
-      <c r="O82" s="189"/>
+      <c r="N82" s="265"/>
+      <c r="O82" s="265"/>
     </row>
     <row r="83" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="213"/>
+      <c r="A83" s="238"/>
       <c r="B83" s="97" t="s">
         <v>119</v>
       </c>
@@ -7934,11 +7916,11 @@
       <c r="K83" s="22"/>
       <c r="L83" s="86"/>
       <c r="M83" s="84"/>
-      <c r="N83" s="189"/>
-      <c r="O83" s="189"/>
+      <c r="N83" s="265"/>
+      <c r="O83" s="265"/>
     </row>
     <row r="84" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="213"/>
+      <c r="A84" s="238"/>
       <c r="B84" s="43" t="s">
         <v>102</v>
       </c>
@@ -7953,11 +7935,11 @@
       <c r="K84" s="99"/>
       <c r="L84" s="99"/>
       <c r="M84" s="98"/>
-      <c r="N84" s="189"/>
-      <c r="O84" s="189"/>
+      <c r="N84" s="265"/>
+      <c r="O84" s="265"/>
     </row>
     <row r="85" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="213"/>
+      <c r="A85" s="238"/>
       <c r="B85" s="94" t="s">
         <v>138</v>
       </c>
@@ -7972,11 +7954,11 @@
       <c r="K85" s="20"/>
       <c r="L85" s="86"/>
       <c r="M85" s="84"/>
-      <c r="N85" s="189"/>
-      <c r="O85" s="189"/>
+      <c r="N85" s="265"/>
+      <c r="O85" s="265"/>
     </row>
     <row r="86" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="213"/>
+      <c r="A86" s="238"/>
       <c r="B86" s="97" t="s">
         <v>139</v>
       </c>
@@ -7991,11 +7973,11 @@
       <c r="K86" s="21"/>
       <c r="L86" s="86"/>
       <c r="M86" s="84"/>
-      <c r="N86" s="189"/>
-      <c r="O86" s="189"/>
+      <c r="N86" s="265"/>
+      <c r="O86" s="265"/>
     </row>
     <row r="87" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="213"/>
+      <c r="A87" s="238"/>
       <c r="B87" s="97" t="s">
         <v>140</v>
       </c>
@@ -8010,11 +7992,11 @@
       <c r="K87" s="21"/>
       <c r="L87" s="86"/>
       <c r="M87" s="84"/>
-      <c r="N87" s="189"/>
-      <c r="O87" s="189"/>
+      <c r="N87" s="265"/>
+      <c r="O87" s="265"/>
     </row>
     <row r="88" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="213"/>
+      <c r="A88" s="238"/>
       <c r="B88" s="97" t="s">
         <v>141</v>
       </c>
@@ -8029,11 +8011,11 @@
       <c r="K88" s="21"/>
       <c r="L88" s="86"/>
       <c r="M88" s="84"/>
-      <c r="N88" s="189"/>
-      <c r="O88" s="189"/>
+      <c r="N88" s="265"/>
+      <c r="O88" s="265"/>
     </row>
     <row r="89" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="214"/>
+      <c r="A89" s="229"/>
       <c r="B89" s="105" t="s">
         <v>119</v>
       </c>
@@ -8048,11 +8030,11 @@
       <c r="K89" s="22"/>
       <c r="L89" s="90"/>
       <c r="M89" s="88"/>
-      <c r="N89" s="190"/>
-      <c r="O89" s="190"/>
+      <c r="N89" s="266"/>
+      <c r="O89" s="266"/>
     </row>
     <row r="90" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="213" t="s">
+      <c r="A90" s="238" t="s">
         <v>298</v>
       </c>
       <c r="B90" s="142" t="s">
@@ -8069,11 +8051,11 @@
       <c r="K90" s="93"/>
       <c r="L90" s="93"/>
       <c r="M90" s="92"/>
-      <c r="N90" s="188"/>
+      <c r="N90" s="264"/>
       <c r="O90" s="164"/>
     </row>
     <row r="91" spans="1:15" s="71" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="213"/>
+      <c r="A91" s="238"/>
       <c r="B91" s="94" t="s">
         <v>127</v>
       </c>
@@ -8088,11 +8070,11 @@
       <c r="K91" s="20"/>
       <c r="L91" s="104"/>
       <c r="M91" s="84"/>
-      <c r="N91" s="189"/>
+      <c r="N91" s="265"/>
       <c r="O91" s="165"/>
     </row>
     <row r="92" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="213"/>
+      <c r="A92" s="238"/>
       <c r="B92" s="97" t="s">
         <v>128</v>
       </c>
@@ -8107,11 +8089,11 @@
       <c r="K92" s="21"/>
       <c r="L92" s="86"/>
       <c r="M92" s="84"/>
-      <c r="N92" s="189"/>
+      <c r="N92" s="265"/>
       <c r="O92" s="165"/>
     </row>
     <row r="93" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="213"/>
+      <c r="A93" s="238"/>
       <c r="B93" s="97" t="s">
         <v>129</v>
       </c>
@@ -8126,11 +8108,11 @@
       <c r="K93" s="21"/>
       <c r="L93" s="104"/>
       <c r="M93" s="84"/>
-      <c r="N93" s="189"/>
+      <c r="N93" s="265"/>
       <c r="O93" s="165"/>
     </row>
     <row r="94" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="213"/>
+      <c r="A94" s="238"/>
       <c r="B94" s="97" t="s">
         <v>119</v>
       </c>
@@ -8145,11 +8127,11 @@
       <c r="K94" s="21"/>
       <c r="L94" s="86"/>
       <c r="M94" s="84"/>
-      <c r="N94" s="189"/>
+      <c r="N94" s="265"/>
       <c r="O94" s="165"/>
     </row>
     <row r="95" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="213"/>
+      <c r="A95" s="238"/>
       <c r="B95" s="43" t="s">
         <v>102</v>
       </c>
@@ -8164,11 +8146,11 @@
       <c r="K95" s="99"/>
       <c r="L95" s="99"/>
       <c r="M95" s="98"/>
-      <c r="N95" s="189"/>
+      <c r="N95" s="265"/>
       <c r="O95" s="165"/>
     </row>
     <row r="96" spans="1:15" s="71" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="213"/>
+      <c r="A96" s="238"/>
       <c r="B96" s="94" t="s">
         <v>130</v>
       </c>
@@ -8183,11 +8165,11 @@
       <c r="K96" s="21"/>
       <c r="L96" s="86"/>
       <c r="M96" s="84"/>
-      <c r="N96" s="189"/>
+      <c r="N96" s="265"/>
       <c r="O96" s="165"/>
     </row>
     <row r="97" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="213"/>
+      <c r="A97" s="238"/>
       <c r="B97" s="94" t="s">
         <v>131</v>
       </c>
@@ -8202,11 +8184,11 @@
       <c r="K97" s="21"/>
       <c r="L97" s="86"/>
       <c r="M97" s="84"/>
-      <c r="N97" s="189"/>
+      <c r="N97" s="265"/>
       <c r="O97" s="165"/>
     </row>
     <row r="98" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="213"/>
+      <c r="A98" s="238"/>
       <c r="B98" s="97" t="s">
         <v>132</v>
       </c>
@@ -8221,11 +8203,11 @@
       <c r="K98" s="21"/>
       <c r="L98" s="86"/>
       <c r="M98" s="84"/>
-      <c r="N98" s="189"/>
+      <c r="N98" s="265"/>
       <c r="O98" s="165"/>
     </row>
     <row r="99" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="214"/>
+      <c r="A99" s="229"/>
       <c r="B99" s="105" t="s">
         <v>119</v>
       </c>
@@ -8240,11 +8222,11 @@
       <c r="K99" s="22"/>
       <c r="L99" s="90"/>
       <c r="M99" s="88"/>
-      <c r="N99" s="190"/>
+      <c r="N99" s="266"/>
       <c r="O99" s="73"/>
     </row>
     <row r="100" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="212" t="s">
+      <c r="A100" s="239" t="s">
         <v>340</v>
       </c>
       <c r="B100" s="142" t="s">
@@ -8261,11 +8243,11 @@
       <c r="K100" s="93"/>
       <c r="L100" s="93"/>
       <c r="M100" s="92"/>
-      <c r="N100" s="188"/>
-      <c r="O100" s="188"/>
+      <c r="N100" s="264"/>
+      <c r="O100" s="264"/>
     </row>
     <row r="101" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="213"/>
+      <c r="A101" s="238"/>
       <c r="B101" s="94" t="s">
         <v>316</v>
       </c>
@@ -8275,13 +8257,13 @@
       <c r="D101" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="E101" s="265">
+      <c r="E101" s="193">
         <v>2009</v>
       </c>
       <c r="F101" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G101" s="262" t="s">
+      <c r="G101" s="190" t="s">
         <v>398</v>
       </c>
       <c r="H101" s="2" t="s">
@@ -8290,7 +8272,7 @@
       <c r="I101" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J101" s="266" t="s">
+      <c r="J101" s="194" t="s">
         <v>399</v>
       </c>
       <c r="K101" s="106" t="s">
@@ -8300,49 +8282,49 @@
         <v>400</v>
       </c>
       <c r="M101" s="95"/>
-      <c r="N101" s="189"/>
-      <c r="O101" s="189"/>
+      <c r="N101" s="265"/>
+      <c r="O101" s="265"/>
     </row>
     <row r="102" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="213"/>
+      <c r="A102" s="238"/>
       <c r="B102" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="C102" s="267"/>
-      <c r="D102" s="267"/>
-      <c r="E102" s="259"/>
-      <c r="F102" s="267"/>
-      <c r="G102" s="267"/>
+      <c r="C102" s="195"/>
+      <c r="D102" s="195"/>
+      <c r="E102" s="187"/>
+      <c r="F102" s="195"/>
+      <c r="G102" s="195"/>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
-      <c r="J102" s="268"/>
+      <c r="J102" s="196"/>
       <c r="K102" s="21"/>
-      <c r="L102" s="269"/>
+      <c r="L102" s="197"/>
       <c r="M102" s="84"/>
-      <c r="N102" s="189"/>
-      <c r="O102" s="189"/>
+      <c r="N102" s="265"/>
+      <c r="O102" s="265"/>
     </row>
     <row r="103" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="213"/>
+      <c r="A103" s="238"/>
       <c r="B103" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="C103" s="267"/>
-      <c r="D103" s="267"/>
-      <c r="E103" s="259"/>
-      <c r="F103" s="267"/>
-      <c r="G103" s="267"/>
+      <c r="C103" s="195"/>
+      <c r="D103" s="195"/>
+      <c r="E103" s="187"/>
+      <c r="F103" s="195"/>
+      <c r="G103" s="195"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
-      <c r="J103" s="268"/>
+      <c r="J103" s="196"/>
       <c r="K103" s="21"/>
-      <c r="L103" s="269"/>
+      <c r="L103" s="197"/>
       <c r="M103" s="84"/>
-      <c r="N103" s="189"/>
-      <c r="O103" s="189"/>
+      <c r="N103" s="265"/>
+      <c r="O103" s="265"/>
     </row>
     <row r="104" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="213"/>
+      <c r="A104" s="238"/>
       <c r="B104" s="97" t="s">
         <v>318</v>
       </c>
@@ -8352,13 +8334,13 @@
       <c r="D104" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="E104" s="259">
+      <c r="E104" s="187">
         <v>2017</v>
       </c>
       <c r="F104" s="84" t="s">
         <v>402</v>
       </c>
-      <c r="G104" s="264" t="s">
+      <c r="G104" s="192" t="s">
         <v>403</v>
       </c>
       <c r="H104" s="3" t="s">
@@ -8373,11 +8355,11 @@
       <c r="K104" s="21"/>
       <c r="L104" s="86"/>
       <c r="M104" s="84"/>
-      <c r="N104" s="189"/>
-      <c r="O104" s="189"/>
+      <c r="N104" s="265"/>
+      <c r="O104" s="265"/>
     </row>
     <row r="105" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="213"/>
+      <c r="A105" s="238"/>
       <c r="B105" s="97" t="s">
         <v>119</v>
       </c>
@@ -8392,11 +8374,11 @@
       <c r="K105" s="22"/>
       <c r="L105" s="86"/>
       <c r="M105" s="84"/>
-      <c r="N105" s="189"/>
-      <c r="O105" s="189"/>
+      <c r="N105" s="265"/>
+      <c r="O105" s="265"/>
     </row>
     <row r="106" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="213"/>
+      <c r="A106" s="238"/>
       <c r="B106" s="43" t="s">
         <v>102</v>
       </c>
@@ -8411,11 +8393,11 @@
       <c r="K106" s="99"/>
       <c r="L106" s="99"/>
       <c r="M106" s="98"/>
-      <c r="N106" s="189"/>
-      <c r="O106" s="189"/>
+      <c r="N106" s="265"/>
+      <c r="O106" s="265"/>
     </row>
     <row r="107" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="213"/>
+      <c r="A107" s="238"/>
       <c r="B107" s="94" t="s">
         <v>319</v>
       </c>
@@ -8430,11 +8412,11 @@
       <c r="K107" s="20"/>
       <c r="L107" s="86"/>
       <c r="M107" s="84"/>
-      <c r="N107" s="189"/>
-      <c r="O107" s="189"/>
+      <c r="N107" s="265"/>
+      <c r="O107" s="265"/>
     </row>
     <row r="108" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="214"/>
+      <c r="A108" s="229"/>
       <c r="B108" s="105" t="s">
         <v>119</v>
       </c>
@@ -8449,11 +8431,11 @@
       <c r="K108" s="22"/>
       <c r="L108" s="90"/>
       <c r="M108" s="88"/>
-      <c r="N108" s="190"/>
-      <c r="O108" s="190"/>
+      <c r="N108" s="266"/>
+      <c r="O108" s="266"/>
     </row>
     <row r="109" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="212" t="s">
+      <c r="A109" s="239" t="s">
         <v>320</v>
       </c>
       <c r="B109" s="43" t="s">
@@ -8470,27 +8452,27 @@
       <c r="K109" s="99"/>
       <c r="L109" s="99"/>
       <c r="M109" s="98"/>
-      <c r="N109" s="188"/>
-      <c r="O109" s="188"/>
+      <c r="N109" s="264"/>
+      <c r="O109" s="264"/>
     </row>
     <row r="110" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="213"/>
+      <c r="A110" s="238"/>
       <c r="B110" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="C110" s="264" t="s">
+      <c r="C110" s="192" t="s">
         <v>405</v>
       </c>
       <c r="D110" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E110" s="259">
+      <c r="E110" s="187">
         <v>2012</v>
       </c>
       <c r="F110" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="G110" s="264" t="s">
+      <c r="G110" s="192" t="s">
         <v>407</v>
       </c>
       <c r="H110" s="3" t="s">
@@ -8505,27 +8487,27 @@
       <c r="K110" s="20"/>
       <c r="L110" s="96"/>
       <c r="M110" s="95"/>
-      <c r="N110" s="189"/>
-      <c r="O110" s="189"/>
+      <c r="N110" s="265"/>
+      <c r="O110" s="265"/>
     </row>
     <row r="111" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="213"/>
+      <c r="A111" s="238"/>
       <c r="B111" s="97" t="s">
         <v>170</v>
       </c>
-      <c r="C111" s="264" t="s">
+      <c r="C111" s="192" t="s">
         <v>405</v>
       </c>
       <c r="D111" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E111" s="259">
+      <c r="E111" s="187">
         <v>2012</v>
       </c>
       <c r="F111" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="G111" s="264" t="s">
+      <c r="G111" s="192" t="s">
         <v>408</v>
       </c>
       <c r="H111" s="3" t="s">
@@ -8540,11 +8522,11 @@
       <c r="K111" s="22"/>
       <c r="L111" s="86"/>
       <c r="M111" s="84"/>
-      <c r="N111" s="189"/>
-      <c r="O111" s="189"/>
+      <c r="N111" s="265"/>
+      <c r="O111" s="265"/>
     </row>
     <row r="112" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="213"/>
+      <c r="A112" s="238"/>
       <c r="B112" s="43" t="s">
         <v>102</v>
       </c>
@@ -8559,11 +8541,11 @@
       <c r="K112" s="99"/>
       <c r="L112" s="99"/>
       <c r="M112" s="98"/>
-      <c r="N112" s="189"/>
-      <c r="O112" s="189"/>
+      <c r="N112" s="265"/>
+      <c r="O112" s="265"/>
     </row>
     <row r="113" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="213"/>
+      <c r="A113" s="238"/>
       <c r="B113" s="94" t="s">
         <v>171</v>
       </c>
@@ -8578,11 +8560,11 @@
       <c r="K113" s="20"/>
       <c r="L113" s="86"/>
       <c r="M113" s="84"/>
-      <c r="N113" s="189"/>
-      <c r="O113" s="189"/>
+      <c r="N113" s="265"/>
+      <c r="O113" s="265"/>
     </row>
     <row r="114" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="214"/>
+      <c r="A114" s="229"/>
       <c r="B114" s="105" t="s">
         <v>119</v>
       </c>
@@ -8597,11 +8579,11 @@
       <c r="K114" s="22"/>
       <c r="L114" s="90"/>
       <c r="M114" s="88"/>
-      <c r="N114" s="190"/>
-      <c r="O114" s="190"/>
+      <c r="N114" s="266"/>
+      <c r="O114" s="266"/>
     </row>
     <row r="115" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="200" t="s">
+      <c r="A115" s="242" t="s">
         <v>172</v>
       </c>
       <c r="B115" s="43" t="s">
@@ -8618,11 +8600,11 @@
       <c r="K115" s="99"/>
       <c r="L115" s="99"/>
       <c r="M115" s="98"/>
-      <c r="N115" s="188"/>
-      <c r="O115" s="188"/>
+      <c r="N115" s="264"/>
+      <c r="O115" s="264"/>
     </row>
     <row r="116" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="201"/>
+      <c r="A116" s="243"/>
       <c r="B116" s="94" t="s">
         <v>173</v>
       </c>
@@ -8637,11 +8619,11 @@
       <c r="K116" s="20"/>
       <c r="L116" s="96"/>
       <c r="M116" s="95"/>
-      <c r="N116" s="189"/>
-      <c r="O116" s="189"/>
+      <c r="N116" s="265"/>
+      <c r="O116" s="265"/>
     </row>
     <row r="117" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="201"/>
+      <c r="A117" s="243"/>
       <c r="B117" s="97" t="s">
         <v>174</v>
       </c>
@@ -8656,11 +8638,11 @@
       <c r="K117" s="21"/>
       <c r="L117" s="86"/>
       <c r="M117" s="84"/>
-      <c r="N117" s="189"/>
-      <c r="O117" s="189"/>
+      <c r="N117" s="265"/>
+      <c r="O117" s="265"/>
     </row>
     <row r="118" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="201"/>
+      <c r="A118" s="243"/>
       <c r="B118" s="97" t="s">
         <v>175</v>
       </c>
@@ -8675,11 +8657,11 @@
       <c r="K118" s="21"/>
       <c r="L118" s="86"/>
       <c r="M118" s="84"/>
-      <c r="N118" s="189"/>
-      <c r="O118" s="189"/>
+      <c r="N118" s="265"/>
+      <c r="O118" s="265"/>
     </row>
     <row r="119" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="201"/>
+      <c r="A119" s="243"/>
       <c r="B119" s="97" t="s">
         <v>119</v>
       </c>
@@ -8694,11 +8676,11 @@
       <c r="K119" s="22"/>
       <c r="L119" s="86"/>
       <c r="M119" s="84"/>
-      <c r="N119" s="189"/>
-      <c r="O119" s="189"/>
+      <c r="N119" s="265"/>
+      <c r="O119" s="265"/>
     </row>
     <row r="120" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="201"/>
+      <c r="A120" s="243"/>
       <c r="B120" s="43" t="s">
         <v>102</v>
       </c>
@@ -8713,11 +8695,11 @@
       <c r="K120" s="99"/>
       <c r="L120" s="99"/>
       <c r="M120" s="98"/>
-      <c r="N120" s="189"/>
-      <c r="O120" s="189"/>
+      <c r="N120" s="265"/>
+      <c r="O120" s="265"/>
     </row>
     <row r="121" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="201"/>
+      <c r="A121" s="243"/>
       <c r="B121" s="94" t="s">
         <v>176</v>
       </c>
@@ -8732,11 +8714,11 @@
       <c r="K121" s="20"/>
       <c r="L121" s="86"/>
       <c r="M121" s="84"/>
-      <c r="N121" s="189"/>
-      <c r="O121" s="189"/>
+      <c r="N121" s="265"/>
+      <c r="O121" s="265"/>
     </row>
     <row r="122" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="202"/>
+      <c r="A122" s="244"/>
       <c r="B122" s="105" t="s">
         <v>177</v>
       </c>
@@ -8751,11 +8733,11 @@
       <c r="K122" s="22"/>
       <c r="L122" s="90"/>
       <c r="M122" s="88"/>
-      <c r="N122" s="190"/>
-      <c r="O122" s="190"/>
+      <c r="N122" s="266"/>
+      <c r="O122" s="266"/>
     </row>
     <row r="123" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="212" t="s">
+      <c r="A123" s="239" t="s">
         <v>178</v>
       </c>
       <c r="B123" s="43" t="s">
@@ -8772,11 +8754,11 @@
       <c r="K123" s="99"/>
       <c r="L123" s="99"/>
       <c r="M123" s="98"/>
-      <c r="N123" s="188"/>
-      <c r="O123" s="188"/>
+      <c r="N123" s="264"/>
+      <c r="O123" s="264"/>
     </row>
     <row r="124" spans="1:15" s="71" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="213"/>
+      <c r="A124" s="238"/>
       <c r="B124" s="94" t="s">
         <v>179</v>
       </c>
@@ -8786,13 +8768,13 @@
       <c r="D124" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="E124" s="265">
+      <c r="E124" s="193">
         <v>2009</v>
       </c>
       <c r="F124" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G124" s="262" t="s">
+      <c r="G124" s="190" t="s">
         <v>419</v>
       </c>
       <c r="H124" s="2" t="s">
@@ -8801,17 +8783,17 @@
       <c r="I124" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="J124" s="266" t="s">
+      <c r="J124" s="194" t="s">
         <v>404</v>
       </c>
       <c r="K124" s="20"/>
       <c r="L124" s="86"/>
       <c r="M124" s="84"/>
-      <c r="N124" s="189"/>
-      <c r="O124" s="189"/>
+      <c r="N124" s="265"/>
+      <c r="O124" s="265"/>
     </row>
     <row r="125" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="213"/>
+      <c r="A125" s="238"/>
       <c r="B125" s="97" t="s">
         <v>119</v>
       </c>
@@ -8826,11 +8808,11 @@
       <c r="K125" s="22"/>
       <c r="L125" s="86"/>
       <c r="M125" s="84"/>
-      <c r="N125" s="189"/>
-      <c r="O125" s="189"/>
+      <c r="N125" s="265"/>
+      <c r="O125" s="265"/>
     </row>
     <row r="126" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="213"/>
+      <c r="A126" s="238"/>
       <c r="B126" s="43" t="s">
         <v>102</v>
       </c>
@@ -8845,11 +8827,11 @@
       <c r="K126" s="99"/>
       <c r="L126" s="99"/>
       <c r="M126" s="98"/>
-      <c r="N126" s="189"/>
-      <c r="O126" s="189"/>
+      <c r="N126" s="265"/>
+      <c r="O126" s="265"/>
     </row>
     <row r="127" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="213"/>
+      <c r="A127" s="238"/>
       <c r="B127" s="94" t="s">
         <v>180</v>
       </c>
@@ -8864,11 +8846,11 @@
       <c r="K127" s="20"/>
       <c r="L127" s="86"/>
       <c r="M127" s="84"/>
-      <c r="N127" s="189"/>
-      <c r="O127" s="189"/>
+      <c r="N127" s="265"/>
+      <c r="O127" s="265"/>
     </row>
     <row r="128" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="214"/>
+      <c r="A128" s="229"/>
       <c r="B128" s="105" t="s">
         <v>181</v>
       </c>
@@ -8883,11 +8865,11 @@
       <c r="K128" s="22"/>
       <c r="L128" s="90"/>
       <c r="M128" s="88"/>
-      <c r="N128" s="190"/>
-      <c r="O128" s="190"/>
+      <c r="N128" s="266"/>
+      <c r="O128" s="266"/>
     </row>
     <row r="129" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="212" t="s">
+      <c r="A129" s="239" t="s">
         <v>182</v>
       </c>
       <c r="B129" s="142" t="s">
@@ -8904,11 +8886,11 @@
       <c r="K129" s="93"/>
       <c r="L129" s="93"/>
       <c r="M129" s="98"/>
-      <c r="N129" s="188"/>
-      <c r="O129" s="188"/>
+      <c r="N129" s="264"/>
+      <c r="O129" s="264"/>
     </row>
     <row r="130" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="213"/>
+      <c r="A130" s="238"/>
       <c r="B130" s="94" t="s">
         <v>183</v>
       </c>
@@ -8918,13 +8900,13 @@
       <c r="D130" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="E130" s="265">
+      <c r="E130" s="193">
         <v>2009</v>
       </c>
       <c r="F130" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G130" s="262" t="s">
+      <c r="G130" s="190" t="s">
         <v>413</v>
       </c>
       <c r="H130" s="2" t="s">
@@ -8933,17 +8915,17 @@
       <c r="I130" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J130" s="266" t="s">
+      <c r="J130" s="194" t="s">
         <v>414</v>
       </c>
       <c r="K130" s="20"/>
       <c r="L130" s="86"/>
       <c r="M130" s="84"/>
-      <c r="N130" s="189"/>
-      <c r="O130" s="189"/>
+      <c r="N130" s="265"/>
+      <c r="O130" s="265"/>
     </row>
     <row r="131" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="213"/>
+      <c r="A131" s="238"/>
       <c r="B131" s="97" t="s">
         <v>314</v>
       </c>
@@ -8953,13 +8935,13 @@
       <c r="D131" s="80" t="s">
         <v>361</v>
       </c>
-      <c r="E131" s="265">
+      <c r="E131" s="193">
         <v>2009</v>
       </c>
       <c r="F131" s="84" t="s">
         <v>397</v>
       </c>
-      <c r="G131" s="262" t="s">
+      <c r="G131" s="190" t="s">
         <v>415</v>
       </c>
       <c r="H131" s="2" t="s">
@@ -8968,52 +8950,52 @@
       <c r="I131" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J131" s="266" t="s">
+      <c r="J131" s="194" t="s">
         <v>416</v>
       </c>
       <c r="K131" s="21"/>
       <c r="L131" s="86"/>
       <c r="M131" s="84"/>
-      <c r="N131" s="189"/>
-      <c r="O131" s="189"/>
+      <c r="N131" s="265"/>
+      <c r="O131" s="265"/>
     </row>
     <row r="132" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="213"/>
+      <c r="A132" s="238"/>
       <c r="B132" s="97" t="s">
         <v>184</v>
       </c>
-      <c r="C132" s="267"/>
-      <c r="D132" s="267"/>
-      <c r="E132" s="259"/>
-      <c r="F132" s="267"/>
-      <c r="G132" s="267"/>
+      <c r="C132" s="195"/>
+      <c r="D132" s="195"/>
+      <c r="E132" s="187"/>
+      <c r="F132" s="195"/>
+      <c r="G132" s="195"/>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
-      <c r="J132" s="268"/>
+      <c r="J132" s="196"/>
       <c r="K132" s="21"/>
       <c r="L132" s="86"/>
       <c r="M132" s="84"/>
-      <c r="N132" s="189"/>
-      <c r="O132" s="189"/>
+      <c r="N132" s="265"/>
+      <c r="O132" s="265"/>
     </row>
     <row r="133" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="213"/>
+      <c r="A133" s="238"/>
       <c r="B133" s="97" t="s">
         <v>185</v>
       </c>
-      <c r="C133" s="264" t="s">
+      <c r="C133" s="192" t="s">
         <v>417</v>
       </c>
       <c r="D133" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E133" s="259">
+      <c r="E133" s="187">
         <v>2012</v>
       </c>
       <c r="F133" s="84" t="s">
         <v>406</v>
       </c>
-      <c r="G133" s="264" t="s">
+      <c r="G133" s="192" t="s">
         <v>418</v>
       </c>
       <c r="H133" s="3" t="s">
@@ -9026,11 +9008,11 @@
       <c r="K133" s="21"/>
       <c r="L133" s="86"/>
       <c r="M133" s="84"/>
-      <c r="N133" s="189"/>
-      <c r="O133" s="189"/>
+      <c r="N133" s="265"/>
+      <c r="O133" s="265"/>
     </row>
     <row r="134" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="213"/>
+      <c r="A134" s="238"/>
       <c r="B134" s="97" t="s">
         <v>186</v>
       </c>
@@ -9045,11 +9027,11 @@
       <c r="K134" s="21"/>
       <c r="L134" s="86"/>
       <c r="M134" s="84"/>
-      <c r="N134" s="189"/>
-      <c r="O134" s="189"/>
+      <c r="N134" s="265"/>
+      <c r="O134" s="265"/>
     </row>
     <row r="135" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="213"/>
+      <c r="A135" s="238"/>
       <c r="B135" s="97" t="s">
         <v>119</v>
       </c>
@@ -9064,11 +9046,11 @@
       <c r="K135" s="22"/>
       <c r="L135" s="86"/>
       <c r="M135" s="84"/>
-      <c r="N135" s="189"/>
-      <c r="O135" s="189"/>
+      <c r="N135" s="265"/>
+      <c r="O135" s="265"/>
     </row>
     <row r="136" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="213"/>
+      <c r="A136" s="238"/>
       <c r="B136" s="43" t="s">
         <v>102</v>
       </c>
@@ -9083,11 +9065,11 @@
       <c r="K136" s="99"/>
       <c r="L136" s="99"/>
       <c r="M136" s="98"/>
-      <c r="N136" s="189"/>
-      <c r="O136" s="189"/>
+      <c r="N136" s="265"/>
+      <c r="O136" s="265"/>
     </row>
     <row r="137" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="213"/>
+      <c r="A137" s="238"/>
       <c r="B137" s="94" t="s">
         <v>187</v>
       </c>
@@ -9102,11 +9084,11 @@
       <c r="K137" s="20"/>
       <c r="L137" s="86"/>
       <c r="M137" s="84"/>
-      <c r="N137" s="189"/>
-      <c r="O137" s="189"/>
+      <c r="N137" s="265"/>
+      <c r="O137" s="265"/>
     </row>
     <row r="138" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="213"/>
+      <c r="A138" s="238"/>
       <c r="B138" s="97" t="s">
         <v>188</v>
       </c>
@@ -9121,11 +9103,11 @@
       <c r="K138" s="21"/>
       <c r="L138" s="86"/>
       <c r="M138" s="84"/>
-      <c r="N138" s="189"/>
-      <c r="O138" s="189"/>
+      <c r="N138" s="265"/>
+      <c r="O138" s="265"/>
     </row>
     <row r="139" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="214"/>
+      <c r="A139" s="229"/>
       <c r="B139" s="105" t="s">
         <v>181</v>
       </c>
@@ -9140,11 +9122,11 @@
       <c r="K139" s="22"/>
       <c r="L139" s="90"/>
       <c r="M139" s="88"/>
-      <c r="N139" s="190"/>
-      <c r="O139" s="190"/>
+      <c r="N139" s="266"/>
+      <c r="O139" s="266"/>
     </row>
     <row r="140" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="212" t="s">
+      <c r="A140" s="239" t="s">
         <v>189</v>
       </c>
       <c r="B140" s="142" t="s">
@@ -9161,11 +9143,11 @@
       <c r="K140" s="93"/>
       <c r="L140" s="93"/>
       <c r="M140" s="92"/>
-      <c r="N140" s="188"/>
-      <c r="O140" s="188"/>
+      <c r="N140" s="264"/>
+      <c r="O140" s="264"/>
     </row>
     <row r="141" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="213"/>
+      <c r="A141" s="238"/>
       <c r="B141" s="97" t="s">
         <v>190</v>
       </c>
@@ -9180,11 +9162,11 @@
       <c r="K141" s="20"/>
       <c r="L141" s="104"/>
       <c r="M141" s="84"/>
-      <c r="N141" s="189"/>
-      <c r="O141" s="189"/>
+      <c r="N141" s="265"/>
+      <c r="O141" s="265"/>
     </row>
     <row r="142" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="213"/>
+      <c r="A142" s="238"/>
       <c r="B142" s="97" t="s">
         <v>191</v>
       </c>
@@ -9199,11 +9181,11 @@
       <c r="K142" s="21"/>
       <c r="L142" s="86"/>
       <c r="M142" s="84"/>
-      <c r="N142" s="189"/>
-      <c r="O142" s="189"/>
+      <c r="N142" s="265"/>
+      <c r="O142" s="265"/>
     </row>
     <row r="143" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="213"/>
+      <c r="A143" s="238"/>
       <c r="B143" s="97" t="s">
         <v>192</v>
       </c>
@@ -9213,13 +9195,13 @@
       <c r="D143" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E143" s="259">
+      <c r="E143" s="187">
         <v>2009</v>
       </c>
       <c r="F143" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G143" s="261" t="s">
+      <c r="G143" s="189" t="s">
         <v>420</v>
       </c>
       <c r="H143" s="3" t="s">
@@ -9228,17 +9210,17 @@
       <c r="I143" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J143" s="266" t="s">
+      <c r="J143" s="194" t="s">
         <v>414</v>
       </c>
       <c r="K143" s="21"/>
       <c r="L143" s="86"/>
       <c r="M143" s="84"/>
-      <c r="N143" s="189"/>
-      <c r="O143" s="189"/>
+      <c r="N143" s="265"/>
+      <c r="O143" s="265"/>
     </row>
     <row r="144" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="213"/>
+      <c r="A144" s="238"/>
       <c r="B144" s="97" t="s">
         <v>119</v>
       </c>
@@ -9253,11 +9235,11 @@
       <c r="K144" s="22"/>
       <c r="L144" s="86"/>
       <c r="M144" s="84"/>
-      <c r="N144" s="189"/>
-      <c r="O144" s="189"/>
+      <c r="N144" s="265"/>
+      <c r="O144" s="265"/>
     </row>
     <row r="145" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="213"/>
+      <c r="A145" s="238"/>
       <c r="B145" s="43" t="s">
         <v>102</v>
       </c>
@@ -9272,11 +9254,11 @@
       <c r="K145" s="99"/>
       <c r="L145" s="99"/>
       <c r="M145" s="98"/>
-      <c r="N145" s="189"/>
-      <c r="O145" s="189"/>
+      <c r="N145" s="265"/>
+      <c r="O145" s="265"/>
     </row>
     <row r="146" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="213"/>
+      <c r="A146" s="238"/>
       <c r="B146" s="94" t="s">
         <v>193</v>
       </c>
@@ -9291,11 +9273,11 @@
       <c r="K146" s="20"/>
       <c r="L146" s="86"/>
       <c r="M146" s="84"/>
-      <c r="N146" s="189"/>
-      <c r="O146" s="189"/>
+      <c r="N146" s="265"/>
+      <c r="O146" s="265"/>
     </row>
     <row r="147" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="214"/>
+      <c r="A147" s="229"/>
       <c r="B147" s="105" t="s">
         <v>119</v>
       </c>
@@ -9310,11 +9292,11 @@
       <c r="K147" s="22"/>
       <c r="L147" s="90"/>
       <c r="M147" s="88"/>
-      <c r="N147" s="190"/>
-      <c r="O147" s="190"/>
+      <c r="N147" s="266"/>
+      <c r="O147" s="266"/>
     </row>
     <row r="148" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="212" t="s">
+      <c r="A148" s="239" t="s">
         <v>202</v>
       </c>
       <c r="B148" s="108" t="s">
@@ -9331,11 +9313,11 @@
       <c r="K148" s="28"/>
       <c r="L148" s="99"/>
       <c r="M148" s="98"/>
-      <c r="N148" s="188"/>
-      <c r="O148" s="188"/>
+      <c r="N148" s="264"/>
+      <c r="O148" s="264"/>
     </row>
     <row r="149" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="213"/>
+      <c r="A149" s="238"/>
       <c r="B149" s="109" t="s">
         <v>203</v>
       </c>
@@ -9345,13 +9327,13 @@
       <c r="D149" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E149" s="259">
+      <c r="E149" s="187">
         <v>2009</v>
       </c>
       <c r="F149" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G149" s="261" t="s">
+      <c r="G149" s="189" t="s">
         <v>421</v>
       </c>
       <c r="H149" s="3" t="s">
@@ -9360,17 +9342,17 @@
       <c r="I149" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J149" s="266" t="s">
+      <c r="J149" s="194" t="s">
         <v>414</v>
       </c>
       <c r="K149" s="20"/>
       <c r="L149" s="104"/>
       <c r="M149" s="150"/>
-      <c r="N149" s="189"/>
-      <c r="O149" s="189"/>
+      <c r="N149" s="265"/>
+      <c r="O149" s="265"/>
     </row>
     <row r="150" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="213"/>
+      <c r="A150" s="238"/>
       <c r="B150" s="110" t="s">
         <v>204</v>
       </c>
@@ -9385,11 +9367,11 @@
       <c r="K150" s="21"/>
       <c r="L150" s="86"/>
       <c r="M150" s="151"/>
-      <c r="N150" s="189"/>
-      <c r="O150" s="189"/>
+      <c r="N150" s="265"/>
+      <c r="O150" s="265"/>
     </row>
     <row r="151" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="213"/>
+      <c r="A151" s="238"/>
       <c r="B151" s="111" t="s">
         <v>205</v>
       </c>
@@ -9404,11 +9386,11 @@
       <c r="K151" s="21"/>
       <c r="L151" s="86"/>
       <c r="M151" s="151"/>
-      <c r="N151" s="189"/>
-      <c r="O151" s="189"/>
+      <c r="N151" s="265"/>
+      <c r="O151" s="265"/>
     </row>
     <row r="152" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="213"/>
+      <c r="A152" s="238"/>
       <c r="B152" s="113" t="s">
         <v>206</v>
       </c>
@@ -9423,11 +9405,11 @@
       <c r="K152" s="23"/>
       <c r="L152" s="102"/>
       <c r="M152" s="152"/>
-      <c r="N152" s="189"/>
-      <c r="O152" s="189"/>
+      <c r="N152" s="265"/>
+      <c r="O152" s="265"/>
     </row>
     <row r="153" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="213"/>
+      <c r="A153" s="238"/>
       <c r="B153" s="113" t="s">
         <v>207</v>
       </c>
@@ -9442,11 +9424,11 @@
       <c r="K153" s="23"/>
       <c r="L153" s="102"/>
       <c r="M153" s="152"/>
-      <c r="N153" s="189"/>
-      <c r="O153" s="189"/>
+      <c r="N153" s="265"/>
+      <c r="O153" s="265"/>
     </row>
     <row r="154" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="213"/>
+      <c r="A154" s="238"/>
       <c r="B154" s="116" t="s">
         <v>119</v>
       </c>
@@ -9461,11 +9443,11 @@
       <c r="K154" s="22"/>
       <c r="L154" s="90"/>
       <c r="M154" s="152"/>
-      <c r="N154" s="189"/>
-      <c r="O154" s="189"/>
+      <c r="N154" s="265"/>
+      <c r="O154" s="265"/>
     </row>
     <row r="155" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="213"/>
+      <c r="A155" s="238"/>
       <c r="B155" s="117" t="s">
         <v>102</v>
       </c>
@@ -9480,11 +9462,11 @@
       <c r="K155" s="28"/>
       <c r="L155" s="99"/>
       <c r="M155" s="98"/>
-      <c r="N155" s="189"/>
-      <c r="O155" s="189"/>
+      <c r="N155" s="265"/>
+      <c r="O155" s="265"/>
     </row>
     <row r="156" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="213"/>
+      <c r="A156" s="238"/>
       <c r="B156" s="109" t="s">
         <v>208</v>
       </c>
@@ -9499,11 +9481,11 @@
       <c r="K156" s="24"/>
       <c r="L156" s="76"/>
       <c r="M156" s="150"/>
-      <c r="N156" s="189"/>
-      <c r="O156" s="189"/>
+      <c r="N156" s="265"/>
+      <c r="O156" s="265"/>
     </row>
     <row r="157" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="213"/>
+      <c r="A157" s="238"/>
       <c r="B157" s="97" t="s">
         <v>209</v>
       </c>
@@ -9518,11 +9500,11 @@
       <c r="K157" s="25"/>
       <c r="L157" s="86"/>
       <c r="M157" s="151"/>
-      <c r="N157" s="189"/>
-      <c r="O157" s="189"/>
+      <c r="N157" s="265"/>
+      <c r="O157" s="265"/>
     </row>
     <row r="158" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="213"/>
+      <c r="A158" s="238"/>
       <c r="B158" s="113" t="s">
         <v>210</v>
       </c>
@@ -9537,11 +9519,11 @@
       <c r="K158" s="21"/>
       <c r="L158" s="119"/>
       <c r="M158" s="84"/>
-      <c r="N158" s="189"/>
-      <c r="O158" s="189"/>
+      <c r="N158" s="265"/>
+      <c r="O158" s="265"/>
     </row>
     <row r="159" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="214"/>
+      <c r="A159" s="229"/>
       <c r="B159" s="120" t="s">
         <v>119</v>
       </c>
@@ -9556,11 +9538,11 @@
       <c r="K159" s="26"/>
       <c r="L159" s="90"/>
       <c r="M159" s="92"/>
-      <c r="N159" s="190"/>
-      <c r="O159" s="190"/>
+      <c r="N159" s="266"/>
+      <c r="O159" s="266"/>
     </row>
     <row r="160" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="212" t="s">
+      <c r="A160" s="239" t="s">
         <v>211</v>
       </c>
       <c r="B160" s="43" t="s">
@@ -9577,11 +9559,11 @@
       <c r="K160" s="99"/>
       <c r="L160" s="99"/>
       <c r="M160" s="98"/>
-      <c r="N160" s="188"/>
-      <c r="O160" s="188"/>
+      <c r="N160" s="264"/>
+      <c r="O160" s="264"/>
     </row>
     <row r="161" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="213"/>
+      <c r="A161" s="238"/>
       <c r="B161" s="94" t="s">
         <v>213</v>
       </c>
@@ -9596,11 +9578,11 @@
       <c r="K161" s="20"/>
       <c r="L161" s="86"/>
       <c r="M161" s="84"/>
-      <c r="N161" s="189"/>
-      <c r="O161" s="189"/>
+      <c r="N161" s="265"/>
+      <c r="O161" s="265"/>
     </row>
     <row r="162" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="213"/>
+      <c r="A162" s="238"/>
       <c r="B162" s="94" t="s">
         <v>214</v>
       </c>
@@ -9615,11 +9597,11 @@
       <c r="K162" s="24"/>
       <c r="L162" s="86"/>
       <c r="M162" s="84"/>
-      <c r="N162" s="189"/>
-      <c r="O162" s="189"/>
+      <c r="N162" s="265"/>
+      <c r="O162" s="265"/>
     </row>
     <row r="163" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="213"/>
+      <c r="A163" s="238"/>
       <c r="B163" s="97" t="s">
         <v>215</v>
       </c>
@@ -9634,11 +9616,11 @@
       <c r="K163" s="21"/>
       <c r="L163" s="86"/>
       <c r="M163" s="84"/>
-      <c r="N163" s="189"/>
-      <c r="O163" s="189"/>
+      <c r="N163" s="265"/>
+      <c r="O163" s="265"/>
     </row>
     <row r="164" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="213"/>
+      <c r="A164" s="238"/>
       <c r="B164" s="97" t="s">
         <v>216</v>
       </c>
@@ -9653,11 +9635,11 @@
       <c r="K164" s="21"/>
       <c r="L164" s="86"/>
       <c r="M164" s="84"/>
-      <c r="N164" s="189"/>
-      <c r="O164" s="189"/>
+      <c r="N164" s="265"/>
+      <c r="O164" s="265"/>
     </row>
     <row r="165" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="213"/>
+      <c r="A165" s="238"/>
       <c r="B165" s="97" t="s">
         <v>217</v>
       </c>
@@ -9667,13 +9649,13 @@
       <c r="D165" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E165" s="259">
+      <c r="E165" s="187">
         <v>2009</v>
       </c>
       <c r="F165" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G165" s="261" t="s">
+      <c r="G165" s="189" t="s">
         <v>433</v>
       </c>
       <c r="H165" s="3" t="s">
@@ -9686,11 +9668,11 @@
       <c r="K165" s="21"/>
       <c r="L165" s="86"/>
       <c r="M165" s="84"/>
-      <c r="N165" s="189"/>
-      <c r="O165" s="189"/>
+      <c r="N165" s="265"/>
+      <c r="O165" s="265"/>
     </row>
     <row r="166" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="213"/>
+      <c r="A166" s="238"/>
       <c r="B166" s="97" t="s">
         <v>218</v>
       </c>
@@ -9705,11 +9687,11 @@
       <c r="K166" s="21"/>
       <c r="L166" s="86"/>
       <c r="M166" s="84"/>
-      <c r="N166" s="189"/>
-      <c r="O166" s="189"/>
+      <c r="N166" s="265"/>
+      <c r="O166" s="265"/>
     </row>
     <row r="167" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="213"/>
+      <c r="A167" s="238"/>
       <c r="B167" s="97" t="s">
         <v>119</v>
       </c>
@@ -9724,11 +9706,11 @@
       <c r="K167" s="22"/>
       <c r="L167" s="86"/>
       <c r="M167" s="84"/>
-      <c r="N167" s="189"/>
-      <c r="O167" s="189"/>
+      <c r="N167" s="265"/>
+      <c r="O167" s="265"/>
     </row>
     <row r="168" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="213"/>
+      <c r="A168" s="238"/>
       <c r="B168" s="43" t="s">
         <v>102</v>
       </c>
@@ -9743,11 +9725,11 @@
       <c r="K168" s="99"/>
       <c r="L168" s="99"/>
       <c r="M168" s="98"/>
-      <c r="N168" s="189"/>
-      <c r="O168" s="189"/>
+      <c r="N168" s="265"/>
+      <c r="O168" s="265"/>
     </row>
     <row r="169" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="213"/>
+      <c r="A169" s="238"/>
       <c r="B169" s="94" t="s">
         <v>219</v>
       </c>
@@ -9762,11 +9744,11 @@
       <c r="K169" s="20"/>
       <c r="L169" s="86"/>
       <c r="M169" s="84"/>
-      <c r="N169" s="189"/>
-      <c r="O169" s="189"/>
+      <c r="N169" s="265"/>
+      <c r="O169" s="265"/>
     </row>
     <row r="170" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="214"/>
+      <c r="A170" s="229"/>
       <c r="B170" s="154" t="s">
         <v>119</v>
       </c>
@@ -9781,11 +9763,11 @@
       <c r="K170" s="22"/>
       <c r="L170" s="90"/>
       <c r="M170" s="88"/>
-      <c r="N170" s="190"/>
-      <c r="O170" s="190"/>
+      <c r="N170" s="266"/>
+      <c r="O170" s="266"/>
     </row>
     <row r="171" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="212" t="s">
+      <c r="A171" s="239" t="s">
         <v>304</v>
       </c>
       <c r="B171" s="142" t="s">
@@ -9802,11 +9784,11 @@
       <c r="K171" s="93"/>
       <c r="L171" s="93"/>
       <c r="M171" s="92"/>
-      <c r="N171" s="188"/>
-      <c r="O171" s="188"/>
+      <c r="N171" s="264"/>
+      <c r="O171" s="264"/>
     </row>
     <row r="172" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="213"/>
+      <c r="A172" s="238"/>
       <c r="B172" s="97" t="s">
         <v>194</v>
       </c>
@@ -9821,11 +9803,11 @@
       <c r="K172" s="20"/>
       <c r="L172" s="86"/>
       <c r="M172" s="84"/>
-      <c r="N172" s="189"/>
-      <c r="O172" s="189"/>
+      <c r="N172" s="265"/>
+      <c r="O172" s="265"/>
     </row>
     <row r="173" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="213"/>
+      <c r="A173" s="238"/>
       <c r="B173" s="97" t="s">
         <v>195</v>
       </c>
@@ -9840,11 +9822,11 @@
       <c r="K173" s="21"/>
       <c r="L173" s="86"/>
       <c r="M173" s="84"/>
-      <c r="N173" s="189"/>
-      <c r="O173" s="189"/>
+      <c r="N173" s="265"/>
+      <c r="O173" s="265"/>
     </row>
     <row r="174" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="213"/>
+      <c r="A174" s="238"/>
       <c r="B174" s="97" t="s">
         <v>196</v>
       </c>
@@ -9859,11 +9841,11 @@
       <c r="K174" s="21"/>
       <c r="L174" s="86"/>
       <c r="M174" s="84"/>
-      <c r="N174" s="189"/>
-      <c r="O174" s="189"/>
+      <c r="N174" s="265"/>
+      <c r="O174" s="265"/>
     </row>
     <row r="175" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="213"/>
+      <c r="A175" s="238"/>
       <c r="B175" s="97" t="s">
         <v>119</v>
       </c>
@@ -9878,11 +9860,11 @@
       <c r="K175" s="22"/>
       <c r="L175" s="86"/>
       <c r="M175" s="84"/>
-      <c r="N175" s="189"/>
-      <c r="O175" s="189"/>
+      <c r="N175" s="265"/>
+      <c r="O175" s="265"/>
     </row>
     <row r="176" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="213"/>
+      <c r="A176" s="238"/>
       <c r="B176" s="43" t="s">
         <v>102</v>
       </c>
@@ -9897,11 +9879,11 @@
       <c r="K176" s="99"/>
       <c r="L176" s="99"/>
       <c r="M176" s="98"/>
-      <c r="N176" s="189"/>
-      <c r="O176" s="189"/>
+      <c r="N176" s="265"/>
+      <c r="O176" s="265"/>
     </row>
     <row r="177" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="213"/>
+      <c r="A177" s="238"/>
       <c r="B177" s="94" t="s">
         <v>197</v>
       </c>
@@ -9916,11 +9898,11 @@
       <c r="K177" s="20"/>
       <c r="L177" s="86"/>
       <c r="M177" s="84"/>
-      <c r="N177" s="189"/>
-      <c r="O177" s="189"/>
+      <c r="N177" s="265"/>
+      <c r="O177" s="265"/>
     </row>
     <row r="178" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="213"/>
+      <c r="A178" s="238"/>
       <c r="B178" s="97" t="s">
         <v>198</v>
       </c>
@@ -9935,11 +9917,11 @@
       <c r="K178" s="21"/>
       <c r="L178" s="86"/>
       <c r="M178" s="84"/>
-      <c r="N178" s="189"/>
-      <c r="O178" s="189"/>
+      <c r="N178" s="265"/>
+      <c r="O178" s="265"/>
     </row>
     <row r="179" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="214"/>
+      <c r="A179" s="229"/>
       <c r="B179" s="105" t="s">
         <v>119</v>
       </c>
@@ -9954,11 +9936,11 @@
       <c r="K179" s="22"/>
       <c r="L179" s="90"/>
       <c r="M179" s="88"/>
-      <c r="N179" s="190"/>
-      <c r="O179" s="190"/>
+      <c r="N179" s="266"/>
+      <c r="O179" s="266"/>
     </row>
     <row r="180" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="212" t="s">
+      <c r="A180" s="239" t="s">
         <v>199</v>
       </c>
       <c r="B180" s="43" t="s">
@@ -9975,11 +9957,11 @@
       <c r="K180" s="99"/>
       <c r="L180" s="99"/>
       <c r="M180" s="98"/>
-      <c r="N180" s="188"/>
-      <c r="O180" s="188"/>
+      <c r="N180" s="264"/>
+      <c r="O180" s="264"/>
     </row>
     <row r="181" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="213"/>
+      <c r="A181" s="238"/>
       <c r="B181" s="94" t="s">
         <v>200</v>
       </c>
@@ -9994,11 +9976,11 @@
       <c r="K181" s="20"/>
       <c r="L181" s="106"/>
       <c r="M181" s="95"/>
-      <c r="N181" s="189"/>
-      <c r="O181" s="189"/>
+      <c r="N181" s="265"/>
+      <c r="O181" s="265"/>
     </row>
     <row r="182" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="213"/>
+      <c r="A182" s="238"/>
       <c r="B182" s="97" t="s">
         <v>119</v>
       </c>
@@ -10013,11 +9995,11 @@
       <c r="K182" s="22"/>
       <c r="L182" s="86"/>
       <c r="M182" s="84"/>
-      <c r="N182" s="189"/>
-      <c r="O182" s="189"/>
+      <c r="N182" s="265"/>
+      <c r="O182" s="265"/>
     </row>
     <row r="183" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="213"/>
+      <c r="A183" s="238"/>
       <c r="B183" s="43" t="s">
         <v>102</v>
       </c>
@@ -10032,11 +10014,11 @@
       <c r="K183" s="107"/>
       <c r="L183" s="107"/>
       <c r="M183" s="98"/>
-      <c r="N183" s="189"/>
-      <c r="O183" s="189"/>
+      <c r="N183" s="265"/>
+      <c r="O183" s="265"/>
     </row>
     <row r="184" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="213"/>
+      <c r="A184" s="238"/>
       <c r="B184" s="94" t="s">
         <v>201</v>
       </c>
@@ -10051,11 +10033,11 @@
       <c r="K184" s="20"/>
       <c r="L184" s="86"/>
       <c r="M184" s="84"/>
-      <c r="N184" s="189"/>
-      <c r="O184" s="189"/>
+      <c r="N184" s="265"/>
+      <c r="O184" s="265"/>
     </row>
     <row r="185" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="214"/>
+      <c r="A185" s="229"/>
       <c r="B185" s="105" t="s">
         <v>119</v>
       </c>
@@ -10070,14 +10052,14 @@
       <c r="K185" s="22"/>
       <c r="L185" s="90"/>
       <c r="M185" s="88"/>
-      <c r="N185" s="190"/>
-      <c r="O185" s="190"/>
+      <c r="N185" s="266"/>
+      <c r="O185" s="266"/>
     </row>
     <row r="186" spans="1:15" s="138" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="205" t="s">
+      <c r="A186" s="236" t="s">
         <v>297</v>
       </c>
-      <c r="B186" s="206"/>
+      <c r="B186" s="237"/>
       <c r="C186" s="139"/>
       <c r="D186" s="140"/>
       <c r="E186" s="140"/>
@@ -10093,7 +10075,7 @@
       <c r="O186" s="137"/>
     </row>
     <row r="187" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="213" t="s">
+      <c r="A187" s="238" t="s">
         <v>313</v>
       </c>
       <c r="B187" s="142" t="s">
@@ -10110,11 +10092,11 @@
       <c r="K187" s="93"/>
       <c r="L187" s="93"/>
       <c r="M187" s="92"/>
-      <c r="N187" s="188"/>
-      <c r="O187" s="188"/>
+      <c r="N187" s="264"/>
+      <c r="O187" s="264"/>
     </row>
     <row r="188" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="213"/>
+      <c r="A188" s="238"/>
       <c r="B188" s="97" t="s">
         <v>220</v>
       </c>
@@ -10124,13 +10106,13 @@
       <c r="D188" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E188" s="259">
+      <c r="E188" s="187">
         <v>2009</v>
       </c>
       <c r="F188" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G188" s="263" t="s">
+      <c r="G188" s="191" t="s">
         <v>473</v>
       </c>
       <c r="H188" s="3" t="s">
@@ -10139,23 +10121,23 @@
       <c r="I188" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J188" s="263" t="s">
+      <c r="J188" s="191" t="s">
         <v>474</v>
       </c>
       <c r="K188" s="20"/>
       <c r="L188" s="86"/>
       <c r="M188" s="87"/>
-      <c r="N188" s="189"/>
-      <c r="O188" s="189"/>
+      <c r="N188" s="265"/>
+      <c r="O188" s="265"/>
     </row>
     <row r="189" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="213"/>
+      <c r="A189" s="238"/>
       <c r="B189" s="97" t="s">
         <v>221</v>
       </c>
       <c r="C189" s="84"/>
       <c r="D189" s="84"/>
-      <c r="E189" s="259"/>
+      <c r="E189" s="187"/>
       <c r="F189" s="84"/>
       <c r="G189" s="84"/>
       <c r="H189" s="3"/>
@@ -10166,11 +10148,11 @@
       <c r="M189" s="87" t="s">
         <v>475</v>
       </c>
-      <c r="N189" s="189"/>
-      <c r="O189" s="189"/>
+      <c r="N189" s="265"/>
+      <c r="O189" s="265"/>
     </row>
     <row r="190" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="213"/>
+      <c r="A190" s="238"/>
       <c r="B190" s="97" t="s">
         <v>222</v>
       </c>
@@ -10185,11 +10167,11 @@
       <c r="K190" s="21"/>
       <c r="L190" s="86"/>
       <c r="M190" s="84"/>
-      <c r="N190" s="189"/>
-      <c r="O190" s="189"/>
+      <c r="N190" s="265"/>
+      <c r="O190" s="265"/>
     </row>
     <row r="191" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="213"/>
+      <c r="A191" s="238"/>
       <c r="B191" s="97" t="s">
         <v>119</v>
       </c>
@@ -10204,11 +10186,11 @@
       <c r="K191" s="22"/>
       <c r="L191" s="86"/>
       <c r="M191" s="84"/>
-      <c r="N191" s="189"/>
-      <c r="O191" s="189"/>
+      <c r="N191" s="265"/>
+      <c r="O191" s="265"/>
     </row>
     <row r="192" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="213"/>
+      <c r="A192" s="238"/>
       <c r="B192" s="43" t="s">
         <v>102</v>
       </c>
@@ -10223,11 +10205,11 @@
       <c r="K192" s="99"/>
       <c r="L192" s="99"/>
       <c r="M192" s="98"/>
-      <c r="N192" s="189"/>
-      <c r="O192" s="189"/>
+      <c r="N192" s="265"/>
+      <c r="O192" s="265"/>
     </row>
     <row r="193" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="213"/>
+      <c r="A193" s="238"/>
       <c r="B193" s="94" t="s">
         <v>223</v>
       </c>
@@ -10242,11 +10224,11 @@
       <c r="K193" s="20"/>
       <c r="L193" s="86"/>
       <c r="M193" s="84"/>
-      <c r="N193" s="189"/>
-      <c r="O193" s="189"/>
+      <c r="N193" s="265"/>
+      <c r="O193" s="265"/>
     </row>
     <row r="194" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="214"/>
+      <c r="A194" s="229"/>
       <c r="B194" s="105" t="s">
         <v>119</v>
       </c>
@@ -10261,11 +10243,11 @@
       <c r="K194" s="22"/>
       <c r="L194" s="90"/>
       <c r="M194" s="88"/>
-      <c r="N194" s="190"/>
-      <c r="O194" s="190"/>
+      <c r="N194" s="266"/>
+      <c r="O194" s="266"/>
     </row>
     <row r="195" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="212" t="s">
+      <c r="A195" s="239" t="s">
         <v>305</v>
       </c>
       <c r="B195" s="142" t="s">
@@ -10282,11 +10264,11 @@
       <c r="K195" s="93"/>
       <c r="L195" s="93"/>
       <c r="M195" s="92"/>
-      <c r="N195" s="188"/>
-      <c r="O195" s="188"/>
+      <c r="N195" s="264"/>
+      <c r="O195" s="264"/>
     </row>
     <row r="196" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="213"/>
+      <c r="A196" s="238"/>
       <c r="B196" s="97" t="s">
         <v>224</v>
       </c>
@@ -10296,13 +10278,13 @@
       <c r="D196" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E196" s="259">
+      <c r="E196" s="187">
         <v>2009</v>
       </c>
       <c r="F196" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G196" s="264" t="s">
+      <c r="G196" s="192" t="s">
         <v>476</v>
       </c>
       <c r="H196" s="3" t="s">
@@ -10311,17 +10293,17 @@
       <c r="I196" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J196" s="263" t="s">
+      <c r="J196" s="191" t="s">
         <v>477</v>
       </c>
       <c r="K196" s="20"/>
       <c r="L196" s="104"/>
       <c r="M196" s="84"/>
-      <c r="N196" s="189"/>
-      <c r="O196" s="189"/>
+      <c r="N196" s="265"/>
+      <c r="O196" s="265"/>
     </row>
     <row r="197" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="213"/>
+      <c r="A197" s="238"/>
       <c r="B197" s="97" t="s">
         <v>225</v>
       </c>
@@ -10336,11 +10318,11 @@
       <c r="K197" s="21"/>
       <c r="L197" s="86"/>
       <c r="M197" s="84"/>
-      <c r="N197" s="189"/>
-      <c r="O197" s="189"/>
+      <c r="N197" s="265"/>
+      <c r="O197" s="265"/>
     </row>
     <row r="198" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="213"/>
+      <c r="A198" s="238"/>
       <c r="B198" s="97" t="s">
         <v>226</v>
       </c>
@@ -10355,11 +10337,11 @@
       <c r="K198" s="21"/>
       <c r="L198" s="86"/>
       <c r="M198" s="84"/>
-      <c r="N198" s="189"/>
-      <c r="O198" s="189"/>
+      <c r="N198" s="265"/>
+      <c r="O198" s="265"/>
     </row>
     <row r="199" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="213"/>
+      <c r="A199" s="238"/>
       <c r="B199" s="97" t="s">
         <v>227</v>
       </c>
@@ -10374,11 +10356,11 @@
       <c r="K199" s="21"/>
       <c r="L199" s="86"/>
       <c r="M199" s="84"/>
-      <c r="N199" s="189"/>
-      <c r="O199" s="189"/>
+      <c r="N199" s="265"/>
+      <c r="O199" s="265"/>
     </row>
     <row r="200" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="213"/>
+      <c r="A200" s="238"/>
       <c r="B200" s="97" t="s">
         <v>119</v>
       </c>
@@ -10393,11 +10375,11 @@
       <c r="K200" s="22"/>
       <c r="L200" s="86"/>
       <c r="M200" s="84"/>
-      <c r="N200" s="189"/>
-      <c r="O200" s="189"/>
+      <c r="N200" s="265"/>
+      <c r="O200" s="265"/>
     </row>
     <row r="201" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="213"/>
+      <c r="A201" s="238"/>
       <c r="B201" s="43" t="s">
         <v>102</v>
       </c>
@@ -10412,11 +10394,11 @@
       <c r="K201" s="99"/>
       <c r="L201" s="99"/>
       <c r="M201" s="98"/>
-      <c r="N201" s="189"/>
-      <c r="O201" s="189"/>
+      <c r="N201" s="265"/>
+      <c r="O201" s="265"/>
     </row>
     <row r="202" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="213"/>
+      <c r="A202" s="238"/>
       <c r="B202" s="94" t="s">
         <v>228</v>
       </c>
@@ -10431,11 +10413,11 @@
       <c r="K202" s="20"/>
       <c r="L202" s="86"/>
       <c r="M202" s="84"/>
-      <c r="N202" s="189"/>
-      <c r="O202" s="189"/>
+      <c r="N202" s="265"/>
+      <c r="O202" s="265"/>
     </row>
     <row r="203" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="213"/>
+      <c r="A203" s="238"/>
       <c r="B203" s="97" t="s">
         <v>229</v>
       </c>
@@ -10450,11 +10432,11 @@
       <c r="K203" s="21"/>
       <c r="L203" s="86"/>
       <c r="M203" s="84"/>
-      <c r="N203" s="189"/>
-      <c r="O203" s="189"/>
+      <c r="N203" s="265"/>
+      <c r="O203" s="265"/>
     </row>
     <row r="204" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="213"/>
+      <c r="A204" s="238"/>
       <c r="B204" s="97" t="s">
         <v>230</v>
       </c>
@@ -10469,11 +10451,11 @@
       <c r="K204" s="21"/>
       <c r="L204" s="86"/>
       <c r="M204" s="84"/>
-      <c r="N204" s="189"/>
-      <c r="O204" s="189"/>
+      <c r="N204" s="265"/>
+      <c r="O204" s="265"/>
     </row>
     <row r="205" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="214"/>
+      <c r="A205" s="229"/>
       <c r="B205" s="105" t="s">
         <v>119</v>
       </c>
@@ -10488,11 +10470,11 @@
       <c r="K205" s="22"/>
       <c r="L205" s="90"/>
       <c r="M205" s="88"/>
-      <c r="N205" s="190"/>
-      <c r="O205" s="190"/>
+      <c r="N205" s="266"/>
+      <c r="O205" s="266"/>
     </row>
     <row r="206" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="212" t="s">
+      <c r="A206" s="239" t="s">
         <v>339</v>
       </c>
       <c r="B206" s="43" t="s">
@@ -10509,11 +10491,11 @@
       <c r="K206" s="99"/>
       <c r="L206" s="99"/>
       <c r="M206" s="98"/>
-      <c r="N206" s="188"/>
-      <c r="O206" s="188"/>
+      <c r="N206" s="264"/>
+      <c r="O206" s="264"/>
     </row>
     <row r="207" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="213"/>
+      <c r="A207" s="238"/>
       <c r="B207" s="97" t="s">
         <v>231</v>
       </c>
@@ -10523,13 +10505,13 @@
       <c r="D207" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E207" s="259">
+      <c r="E207" s="187">
         <v>2023</v>
       </c>
       <c r="F207" s="84" t="s">
         <v>371</v>
       </c>
-      <c r="G207" s="264" t="s">
+      <c r="G207" s="192" t="s">
         <v>478</v>
       </c>
       <c r="H207" s="2" t="s">
@@ -10538,17 +10520,17 @@
       <c r="I207" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="J207" s="263" t="s">
+      <c r="J207" s="191" t="s">
         <v>479</v>
       </c>
       <c r="K207" s="20"/>
       <c r="L207" s="86"/>
       <c r="M207" s="84"/>
-      <c r="N207" s="189"/>
-      <c r="O207" s="189"/>
+      <c r="N207" s="265"/>
+      <c r="O207" s="265"/>
     </row>
     <row r="208" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="213"/>
+      <c r="A208" s="238"/>
       <c r="B208" s="97" t="s">
         <v>119</v>
       </c>
@@ -10563,11 +10545,11 @@
       <c r="K208" s="22"/>
       <c r="L208" s="86"/>
       <c r="M208" s="84"/>
-      <c r="N208" s="189"/>
-      <c r="O208" s="189"/>
+      <c r="N208" s="265"/>
+      <c r="O208" s="265"/>
     </row>
     <row r="209" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="213"/>
+      <c r="A209" s="238"/>
       <c r="B209" s="43" t="s">
         <v>102</v>
       </c>
@@ -10582,11 +10564,11 @@
       <c r="K209" s="99"/>
       <c r="L209" s="99"/>
       <c r="M209" s="98"/>
-      <c r="N209" s="189"/>
-      <c r="O209" s="189"/>
+      <c r="N209" s="265"/>
+      <c r="O209" s="265"/>
     </row>
     <row r="210" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="213"/>
+      <c r="A210" s="238"/>
       <c r="B210" s="94" t="s">
         <v>233</v>
       </c>
@@ -10601,11 +10583,11 @@
       <c r="K210" s="20"/>
       <c r="L210" s="86"/>
       <c r="M210" s="84"/>
-      <c r="N210" s="189"/>
-      <c r="O210" s="189"/>
+      <c r="N210" s="265"/>
+      <c r="O210" s="265"/>
     </row>
     <row r="211" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="214"/>
+      <c r="A211" s="229"/>
       <c r="B211" s="100" t="s">
         <v>119</v>
       </c>
@@ -10620,14 +10602,14 @@
       <c r="K211" s="23"/>
       <c r="L211" s="102"/>
       <c r="M211" s="101"/>
-      <c r="N211" s="190"/>
-      <c r="O211" s="190"/>
+      <c r="N211" s="266"/>
+      <c r="O211" s="266"/>
     </row>
     <row r="212" spans="1:15" s="138" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="205" t="s">
+      <c r="A212" s="236" t="s">
         <v>296</v>
       </c>
-      <c r="B212" s="206"/>
+      <c r="B212" s="237"/>
       <c r="C212" s="139"/>
       <c r="D212" s="140"/>
       <c r="E212" s="140"/>
@@ -10643,7 +10625,7 @@
       <c r="O212" s="137"/>
     </row>
     <row r="213" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="213" t="s">
+      <c r="A213" s="238" t="s">
         <v>306</v>
       </c>
       <c r="B213" s="142" t="s">
@@ -10660,32 +10642,32 @@
       <c r="K213" s="93"/>
       <c r="L213" s="93"/>
       <c r="M213" s="92"/>
-      <c r="N213" s="188"/>
-      <c r="O213" s="188"/>
+      <c r="N213" s="264"/>
+      <c r="O213" s="264"/>
     </row>
     <row r="214" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="213"/>
+      <c r="A214" s="238"/>
       <c r="B214" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="C214" s="272"/>
-      <c r="D214" s="273"/>
-      <c r="E214" s="273"/>
-      <c r="F214" s="273"/>
-      <c r="G214" s="273"/>
-      <c r="H214" s="273"/>
-      <c r="I214" s="273"/>
-      <c r="J214" s="273"/>
+      <c r="C214" s="200"/>
+      <c r="D214" s="201"/>
+      <c r="E214" s="201"/>
+      <c r="F214" s="201"/>
+      <c r="G214" s="201"/>
+      <c r="H214" s="201"/>
+      <c r="I214" s="201"/>
+      <c r="J214" s="201"/>
       <c r="K214" s="20"/>
       <c r="L214" s="104"/>
       <c r="M214" s="87" t="s">
         <v>464</v>
       </c>
-      <c r="N214" s="189"/>
-      <c r="O214" s="189"/>
+      <c r="N214" s="265"/>
+      <c r="O214" s="265"/>
     </row>
     <row r="215" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="213"/>
+      <c r="A215" s="238"/>
       <c r="B215" s="97" t="s">
         <v>235</v>
       </c>
@@ -10695,13 +10677,13 @@
       <c r="D215" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E215" s="259">
+      <c r="E215" s="187">
         <v>2009</v>
       </c>
       <c r="F215" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G215" s="261" t="s">
+      <c r="G215" s="189" t="s">
         <v>465</v>
       </c>
       <c r="H215" s="3" t="s">
@@ -10710,23 +10692,23 @@
       <c r="I215" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J215" s="263" t="s">
+      <c r="J215" s="191" t="s">
         <v>466</v>
       </c>
       <c r="K215" s="21"/>
       <c r="L215" s="104"/>
       <c r="M215" s="87"/>
-      <c r="N215" s="189"/>
-      <c r="O215" s="189"/>
+      <c r="N215" s="265"/>
+      <c r="O215" s="265"/>
     </row>
     <row r="216" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="213"/>
+      <c r="A216" s="238"/>
       <c r="B216" s="97" t="s">
         <v>236</v>
       </c>
       <c r="C216" s="87"/>
       <c r="D216" s="87"/>
-      <c r="E216" s="259"/>
+      <c r="E216" s="187"/>
       <c r="F216" s="87"/>
       <c r="G216" s="87"/>
       <c r="H216" s="3"/>
@@ -10737,11 +10719,11 @@
       <c r="M216" s="87" t="s">
         <v>467</v>
       </c>
-      <c r="N216" s="189"/>
-      <c r="O216" s="189"/>
+      <c r="N216" s="265"/>
+      <c r="O216" s="265"/>
     </row>
     <row r="217" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="213"/>
+      <c r="A217" s="238"/>
       <c r="B217" s="97" t="s">
         <v>237</v>
       </c>
@@ -10751,13 +10733,13 @@
       <c r="D217" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="E217" s="259">
+      <c r="E217" s="187">
         <v>2017</v>
       </c>
       <c r="F217" s="87" t="s">
         <v>402</v>
       </c>
-      <c r="G217" s="261" t="s">
+      <c r="G217" s="189" t="s">
         <v>468</v>
       </c>
       <c r="H217" s="3" t="s">
@@ -10772,11 +10754,11 @@
       <c r="K217" s="21"/>
       <c r="L217" s="86"/>
       <c r="M217" s="87"/>
-      <c r="N217" s="189"/>
-      <c r="O217" s="189"/>
+      <c r="N217" s="265"/>
+      <c r="O217" s="265"/>
     </row>
     <row r="218" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="213"/>
+      <c r="A218" s="238"/>
       <c r="B218" s="97" t="s">
         <v>238</v>
       </c>
@@ -10786,13 +10768,13 @@
       <c r="D218" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E218" s="259">
+      <c r="E218" s="187">
         <v>2009</v>
       </c>
       <c r="F218" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G218" s="261" t="s">
+      <c r="G218" s="189" t="s">
         <v>469</v>
       </c>
       <c r="H218" s="3" t="s">
@@ -10801,17 +10783,17 @@
       <c r="I218" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J218" s="263" t="s">
+      <c r="J218" s="191" t="s">
         <v>470</v>
       </c>
       <c r="K218" s="21"/>
       <c r="L218" s="86"/>
       <c r="M218" s="87"/>
-      <c r="N218" s="189"/>
-      <c r="O218" s="189"/>
+      <c r="N218" s="265"/>
+      <c r="O218" s="265"/>
     </row>
     <row r="219" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="213"/>
+      <c r="A219" s="238"/>
       <c r="B219" s="97" t="s">
         <v>239</v>
       </c>
@@ -10821,13 +10803,13 @@
       <c r="D219" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E219" s="259">
+      <c r="E219" s="187">
         <v>2009</v>
       </c>
       <c r="F219" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G219" s="264" t="s">
+      <c r="G219" s="192" t="s">
         <v>471</v>
       </c>
       <c r="H219" s="3" t="s">
@@ -10836,17 +10818,17 @@
       <c r="I219" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J219" s="263" t="s">
+      <c r="J219" s="191" t="s">
         <v>472</v>
       </c>
       <c r="K219" s="21"/>
       <c r="L219" s="86"/>
       <c r="M219" s="87"/>
-      <c r="N219" s="189"/>
-      <c r="O219" s="189"/>
+      <c r="N219" s="265"/>
+      <c r="O219" s="265"/>
     </row>
     <row r="220" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="213"/>
+      <c r="A220" s="238"/>
       <c r="B220" s="97" t="s">
         <v>240</v>
       </c>
@@ -10861,11 +10843,11 @@
       <c r="K220" s="21"/>
       <c r="L220" s="86"/>
       <c r="M220" s="84"/>
-      <c r="N220" s="189"/>
-      <c r="O220" s="189"/>
+      <c r="N220" s="265"/>
+      <c r="O220" s="265"/>
     </row>
     <row r="221" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="213"/>
+      <c r="A221" s="238"/>
       <c r="B221" s="97" t="s">
         <v>241</v>
       </c>
@@ -10880,11 +10862,11 @@
       <c r="K221" s="21"/>
       <c r="L221" s="86"/>
       <c r="M221" s="84"/>
-      <c r="N221" s="189"/>
-      <c r="O221" s="189"/>
+      <c r="N221" s="265"/>
+      <c r="O221" s="265"/>
     </row>
     <row r="222" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="213"/>
+      <c r="A222" s="238"/>
       <c r="B222" s="97" t="s">
         <v>119</v>
       </c>
@@ -10899,11 +10881,11 @@
       <c r="K222" s="22"/>
       <c r="L222" s="86"/>
       <c r="M222" s="84"/>
-      <c r="N222" s="189"/>
-      <c r="O222" s="189"/>
+      <c r="N222" s="265"/>
+      <c r="O222" s="265"/>
     </row>
     <row r="223" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="213"/>
+      <c r="A223" s="238"/>
       <c r="B223" s="43" t="s">
         <v>102</v>
       </c>
@@ -10918,11 +10900,11 @@
       <c r="K223" s="99"/>
       <c r="L223" s="99"/>
       <c r="M223" s="98"/>
-      <c r="N223" s="189"/>
-      <c r="O223" s="189"/>
+      <c r="N223" s="265"/>
+      <c r="O223" s="265"/>
     </row>
     <row r="224" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="213"/>
+      <c r="A224" s="238"/>
       <c r="B224" s="94" t="s">
         <v>242</v>
       </c>
@@ -10937,11 +10919,11 @@
       <c r="K224" s="20"/>
       <c r="L224" s="86"/>
       <c r="M224" s="84"/>
-      <c r="N224" s="189"/>
-      <c r="O224" s="189"/>
+      <c r="N224" s="265"/>
+      <c r="O224" s="265"/>
     </row>
     <row r="225" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="213"/>
+      <c r="A225" s="238"/>
       <c r="B225" s="97" t="s">
         <v>243</v>
       </c>
@@ -10956,11 +10938,11 @@
       <c r="K225" s="21"/>
       <c r="L225" s="86"/>
       <c r="M225" s="84"/>
-      <c r="N225" s="189"/>
-      <c r="O225" s="189"/>
+      <c r="N225" s="265"/>
+      <c r="O225" s="265"/>
     </row>
     <row r="226" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="213"/>
+      <c r="A226" s="238"/>
       <c r="B226" s="97" t="s">
         <v>244</v>
       </c>
@@ -10975,11 +10957,11 @@
       <c r="K226" s="21"/>
       <c r="L226" s="86"/>
       <c r="M226" s="84"/>
-      <c r="N226" s="189"/>
-      <c r="O226" s="189"/>
+      <c r="N226" s="265"/>
+      <c r="O226" s="265"/>
     </row>
     <row r="227" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="214"/>
+      <c r="A227" s="229"/>
       <c r="B227" s="105" t="s">
         <v>119</v>
       </c>
@@ -10994,14 +10976,14 @@
       <c r="K227" s="22"/>
       <c r="L227" s="90"/>
       <c r="M227" s="88"/>
-      <c r="N227" s="190"/>
-      <c r="O227" s="190"/>
+      <c r="N227" s="266"/>
+      <c r="O227" s="266"/>
     </row>
     <row r="228" spans="1:15" s="138" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="205" t="s">
+      <c r="A228" s="236" t="s">
         <v>294</v>
       </c>
-      <c r="B228" s="206"/>
+      <c r="B228" s="237"/>
       <c r="C228" s="139"/>
       <c r="D228" s="140"/>
       <c r="E228" s="140"/>
@@ -11017,7 +10999,7 @@
       <c r="O228" s="137"/>
     </row>
     <row r="229" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="213" t="s">
+      <c r="A229" s="238" t="s">
         <v>307</v>
       </c>
       <c r="B229" s="142" t="s">
@@ -11034,11 +11016,11 @@
       <c r="K229" s="93"/>
       <c r="L229" s="93"/>
       <c r="M229" s="92"/>
-      <c r="N229" s="188"/>
-      <c r="O229" s="188"/>
+      <c r="N229" s="264"/>
+      <c r="O229" s="264"/>
     </row>
     <row r="230" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="213"/>
+      <c r="A230" s="238"/>
       <c r="B230" s="94" t="s">
         <v>261</v>
       </c>
@@ -11053,21 +11035,21 @@
       <c r="K230" s="20"/>
       <c r="L230" s="86"/>
       <c r="M230" s="84"/>
-      <c r="N230" s="189"/>
-      <c r="O230" s="189"/>
+      <c r="N230" s="265"/>
+      <c r="O230" s="265"/>
     </row>
     <row r="231" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="213"/>
+      <c r="A231" s="238"/>
       <c r="B231" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="C231" s="264" t="s">
+      <c r="C231" s="192" t="s">
         <v>422</v>
       </c>
       <c r="D231" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E231" s="259">
+      <c r="E231" s="187">
         <v>2012</v>
       </c>
       <c r="F231" s="84" t="s">
@@ -11086,30 +11068,30 @@
       <c r="K231" s="21"/>
       <c r="L231" s="86"/>
       <c r="M231" s="84"/>
-      <c r="N231" s="189"/>
-      <c r="O231" s="189"/>
+      <c r="N231" s="265"/>
+      <c r="O231" s="265"/>
     </row>
     <row r="232" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="213"/>
+      <c r="A232" s="238"/>
       <c r="B232" s="97" t="s">
         <v>263</v>
       </c>
-      <c r="C232" s="267"/>
-      <c r="D232" s="267"/>
-      <c r="E232" s="259"/>
-      <c r="F232" s="267"/>
-      <c r="G232" s="267"/>
+      <c r="C232" s="195"/>
+      <c r="D232" s="195"/>
+      <c r="E232" s="187"/>
+      <c r="F232" s="195"/>
+      <c r="G232" s="195"/>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
-      <c r="J232" s="268"/>
+      <c r="J232" s="196"/>
       <c r="K232" s="21"/>
       <c r="L232" s="86"/>
       <c r="M232" s="84"/>
-      <c r="N232" s="189"/>
-      <c r="O232" s="189"/>
+      <c r="N232" s="265"/>
+      <c r="O232" s="265"/>
     </row>
     <row r="233" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="213"/>
+      <c r="A233" s="238"/>
       <c r="B233" s="97" t="s">
         <v>264</v>
       </c>
@@ -11119,13 +11101,13 @@
       <c r="D233" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E233" s="259">
+      <c r="E233" s="187">
         <v>2009</v>
       </c>
       <c r="F233" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G233" s="261" t="s">
+      <c r="G233" s="189" t="s">
         <v>424</v>
       </c>
       <c r="H233" s="3" t="s">
@@ -11134,17 +11116,17 @@
       <c r="I233" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J233" s="266" t="s">
+      <c r="J233" s="194" t="s">
         <v>425</v>
       </c>
       <c r="K233" s="21"/>
       <c r="L233" s="86"/>
       <c r="M233" s="84"/>
-      <c r="N233" s="189"/>
-      <c r="O233" s="189"/>
+      <c r="N233" s="265"/>
+      <c r="O233" s="265"/>
     </row>
     <row r="234" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="213"/>
+      <c r="A234" s="238"/>
       <c r="B234" s="97" t="s">
         <v>265</v>
       </c>
@@ -11159,11 +11141,11 @@
       <c r="K234" s="21"/>
       <c r="L234" s="86"/>
       <c r="M234" s="84"/>
-      <c r="N234" s="189"/>
-      <c r="O234" s="189"/>
+      <c r="N234" s="265"/>
+      <c r="O234" s="265"/>
     </row>
     <row r="235" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="213"/>
+      <c r="A235" s="238"/>
       <c r="B235" s="97" t="s">
         <v>266</v>
       </c>
@@ -11178,11 +11160,11 @@
       <c r="K235" s="21"/>
       <c r="L235" s="86"/>
       <c r="M235" s="84"/>
-      <c r="N235" s="189"/>
-      <c r="O235" s="189"/>
+      <c r="N235" s="265"/>
+      <c r="O235" s="265"/>
     </row>
     <row r="236" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="213"/>
+      <c r="A236" s="238"/>
       <c r="B236" s="97" t="s">
         <v>119</v>
       </c>
@@ -11197,11 +11179,11 @@
       <c r="K236" s="22"/>
       <c r="L236" s="86"/>
       <c r="M236" s="84"/>
-      <c r="N236" s="189"/>
-      <c r="O236" s="189"/>
+      <c r="N236" s="265"/>
+      <c r="O236" s="265"/>
     </row>
     <row r="237" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="213"/>
+      <c r="A237" s="238"/>
       <c r="B237" s="43" t="s">
         <v>102</v>
       </c>
@@ -11216,11 +11198,11 @@
       <c r="K237" s="99"/>
       <c r="L237" s="99"/>
       <c r="M237" s="98"/>
-      <c r="N237" s="189"/>
-      <c r="O237" s="189"/>
+      <c r="N237" s="265"/>
+      <c r="O237" s="265"/>
     </row>
     <row r="238" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="213"/>
+      <c r="A238" s="238"/>
       <c r="B238" s="94" t="s">
         <v>267</v>
       </c>
@@ -11235,11 +11217,11 @@
       <c r="K238" s="20"/>
       <c r="L238" s="86"/>
       <c r="M238" s="84"/>
-      <c r="N238" s="189"/>
-      <c r="O238" s="189"/>
+      <c r="N238" s="265"/>
+      <c r="O238" s="265"/>
     </row>
     <row r="239" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="214"/>
+      <c r="A239" s="229"/>
       <c r="B239" s="105" t="s">
         <v>119</v>
       </c>
@@ -11254,11 +11236,11 @@
       <c r="K239" s="22"/>
       <c r="L239" s="90"/>
       <c r="M239" s="88"/>
-      <c r="N239" s="190"/>
-      <c r="O239" s="190"/>
+      <c r="N239" s="266"/>
+      <c r="O239" s="266"/>
     </row>
     <row r="240" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="212" t="s">
+      <c r="A240" s="239" t="s">
         <v>268</v>
       </c>
       <c r="B240" s="43" t="s">
@@ -11275,11 +11257,11 @@
       <c r="K240" s="99"/>
       <c r="L240" s="99"/>
       <c r="M240" s="98"/>
-      <c r="N240" s="188"/>
-      <c r="O240" s="188"/>
+      <c r="N240" s="264"/>
+      <c r="O240" s="264"/>
     </row>
     <row r="241" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="213"/>
+      <c r="A241" s="238"/>
       <c r="B241" s="94" t="s">
         <v>269</v>
       </c>
@@ -11289,13 +11271,13 @@
       <c r="D241" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E241" s="259">
+      <c r="E241" s="187">
         <v>2009</v>
       </c>
       <c r="F241" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G241" s="261" t="s">
+      <c r="G241" s="189" t="s">
         <v>426</v>
       </c>
       <c r="H241" s="3" t="s">
@@ -11304,36 +11286,36 @@
       <c r="I241" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J241" s="266" t="s">
+      <c r="J241" s="194" t="s">
         <v>427</v>
       </c>
       <c r="K241" s="20"/>
       <c r="L241" s="86"/>
       <c r="M241" s="84"/>
-      <c r="N241" s="189"/>
-      <c r="O241" s="189"/>
+      <c r="N241" s="265"/>
+      <c r="O241" s="265"/>
     </row>
     <row r="242" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="213"/>
+      <c r="A242" s="238"/>
       <c r="B242" s="94" t="s">
         <v>270</v>
       </c>
-      <c r="C242" s="267"/>
-      <c r="D242" s="267"/>
-      <c r="E242" s="270"/>
-      <c r="F242" s="267"/>
-      <c r="G242" s="267"/>
+      <c r="C242" s="195"/>
+      <c r="D242" s="195"/>
+      <c r="E242" s="198"/>
+      <c r="F242" s="195"/>
+      <c r="G242" s="195"/>
       <c r="H242" s="8"/>
       <c r="I242" s="8"/>
-      <c r="J242" s="268"/>
+      <c r="J242" s="196"/>
       <c r="K242" s="24"/>
       <c r="L242" s="86"/>
       <c r="M242" s="84"/>
-      <c r="N242" s="189"/>
-      <c r="O242" s="189"/>
+      <c r="N242" s="265"/>
+      <c r="O242" s="265"/>
     </row>
     <row r="243" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="213"/>
+      <c r="A243" s="238"/>
       <c r="B243" s="97" t="s">
         <v>271</v>
       </c>
@@ -11343,13 +11325,13 @@
       <c r="D243" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="E243" s="259">
+      <c r="E243" s="187">
         <v>2009</v>
       </c>
       <c r="F243" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="G243" s="261" t="s">
+      <c r="G243" s="189" t="s">
         <v>428</v>
       </c>
       <c r="H243" s="3" t="s">
@@ -11358,17 +11340,17 @@
       <c r="I243" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="J243" s="266" t="s">
+      <c r="J243" s="194" t="s">
         <v>429</v>
       </c>
       <c r="K243" s="21"/>
       <c r="L243" s="86"/>
       <c r="M243" s="84"/>
-      <c r="N243" s="189"/>
-      <c r="O243" s="189"/>
+      <c r="N243" s="265"/>
+      <c r="O243" s="265"/>
     </row>
     <row r="244" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="213"/>
+      <c r="A244" s="238"/>
       <c r="B244" s="97" t="s">
         <v>119</v>
       </c>
@@ -11383,11 +11365,11 @@
       <c r="K244" s="21"/>
       <c r="L244" s="86"/>
       <c r="M244" s="84"/>
-      <c r="N244" s="189"/>
-      <c r="O244" s="189"/>
+      <c r="N244" s="265"/>
+      <c r="O244" s="265"/>
     </row>
     <row r="245" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="213"/>
+      <c r="A245" s="238"/>
       <c r="B245" s="43" t="s">
         <v>102</v>
       </c>
@@ -11402,11 +11384,11 @@
       <c r="K245" s="99"/>
       <c r="L245" s="99"/>
       <c r="M245" s="98"/>
-      <c r="N245" s="189"/>
-      <c r="O245" s="189"/>
+      <c r="N245" s="265"/>
+      <c r="O245" s="265"/>
     </row>
     <row r="246" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="213"/>
+      <c r="A246" s="238"/>
       <c r="B246" s="94" t="s">
         <v>272</v>
       </c>
@@ -11421,11 +11403,11 @@
       <c r="K246" s="20"/>
       <c r="L246" s="86"/>
       <c r="M246" s="84"/>
-      <c r="N246" s="189"/>
-      <c r="O246" s="189"/>
+      <c r="N246" s="265"/>
+      <c r="O246" s="265"/>
     </row>
     <row r="247" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="213"/>
+      <c r="A247" s="238"/>
       <c r="B247" s="143" t="s">
         <v>273</v>
       </c>
@@ -11440,11 +11422,11 @@
       <c r="K247" s="27"/>
       <c r="L247" s="102"/>
       <c r="M247" s="101"/>
-      <c r="N247" s="189"/>
-      <c r="O247" s="189"/>
+      <c r="N247" s="265"/>
+      <c r="O247" s="265"/>
     </row>
     <row r="248" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="214"/>
+      <c r="A248" s="229"/>
       <c r="B248" s="105" t="s">
         <v>119</v>
       </c>
@@ -11459,14 +11441,14 @@
       <c r="K248" s="22"/>
       <c r="L248" s="90"/>
       <c r="M248" s="88"/>
-      <c r="N248" s="190"/>
-      <c r="O248" s="190"/>
+      <c r="N248" s="266"/>
+      <c r="O248" s="266"/>
     </row>
     <row r="249" spans="1:15" s="138" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="205" t="s">
+      <c r="A249" s="236" t="s">
         <v>295</v>
       </c>
-      <c r="B249" s="206"/>
+      <c r="B249" s="237"/>
       <c r="C249" s="139"/>
       <c r="D249" s="140"/>
       <c r="E249" s="140"/>
@@ -11482,7 +11464,7 @@
       <c r="O249" s="137"/>
     </row>
     <row r="250" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="213" t="s">
+      <c r="A250" s="238" t="s">
         <v>245</v>
       </c>
       <c r="B250" s="142" t="s">
@@ -11499,11 +11481,11 @@
       <c r="K250" s="93"/>
       <c r="L250" s="93"/>
       <c r="M250" s="92"/>
-      <c r="N250" s="188"/>
-      <c r="O250" s="188"/>
+      <c r="N250" s="264"/>
+      <c r="O250" s="264"/>
     </row>
     <row r="251" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="213"/>
+      <c r="A251" s="238"/>
       <c r="B251" s="94" t="s">
         <v>246</v>
       </c>
@@ -11534,11 +11516,11 @@
       <c r="M251" s="95" t="s">
         <v>381</v>
       </c>
-      <c r="N251" s="189"/>
-      <c r="O251" s="189"/>
+      <c r="N251" s="265"/>
+      <c r="O251" s="265"/>
     </row>
     <row r="252" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="213"/>
+      <c r="A252" s="238"/>
       <c r="B252" s="97" t="s">
         <v>247</v>
       </c>
@@ -11563,11 +11545,11 @@
       <c r="M252" s="84" t="s">
         <v>382</v>
       </c>
-      <c r="N252" s="189"/>
-      <c r="O252" s="189"/>
+      <c r="N252" s="265"/>
+      <c r="O252" s="265"/>
     </row>
     <row r="253" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="213"/>
+      <c r="A253" s="238"/>
       <c r="B253" s="97" t="s">
         <v>248</v>
       </c>
@@ -11598,11 +11580,11 @@
       <c r="M253" s="84" t="s">
         <v>383</v>
       </c>
-      <c r="N253" s="189"/>
-      <c r="O253" s="189"/>
+      <c r="N253" s="265"/>
+      <c r="O253" s="265"/>
     </row>
     <row r="254" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="213"/>
+      <c r="A254" s="238"/>
       <c r="B254" s="97" t="s">
         <v>312</v>
       </c>
@@ -11627,11 +11609,11 @@
       <c r="M254" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="N254" s="189"/>
-      <c r="O254" s="189"/>
+      <c r="N254" s="265"/>
+      <c r="O254" s="265"/>
     </row>
     <row r="255" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="213"/>
+      <c r="A255" s="238"/>
       <c r="B255" s="97" t="s">
         <v>249</v>
       </c>
@@ -11662,11 +11644,11 @@
       <c r="M255" s="84" t="s">
         <v>385</v>
       </c>
-      <c r="N255" s="189"/>
-      <c r="O255" s="189"/>
+      <c r="N255" s="265"/>
+      <c r="O255" s="265"/>
     </row>
     <row r="256" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="213"/>
+      <c r="A256" s="238"/>
       <c r="B256" s="97" t="s">
         <v>249</v>
       </c>
@@ -11697,11 +11679,11 @@
       <c r="M256" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="N256" s="189"/>
-      <c r="O256" s="189"/>
+      <c r="N256" s="265"/>
+      <c r="O256" s="265"/>
     </row>
     <row r="257" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="213"/>
+      <c r="A257" s="238"/>
       <c r="B257" s="97" t="s">
         <v>250</v>
       </c>
@@ -11732,11 +11714,11 @@
       <c r="M257" s="84" t="s">
         <v>381</v>
       </c>
-      <c r="N257" s="189"/>
-      <c r="O257" s="189"/>
+      <c r="N257" s="265"/>
+      <c r="O257" s="265"/>
     </row>
     <row r="258" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="213"/>
+      <c r="A258" s="238"/>
       <c r="B258" s="97" t="s">
         <v>251</v>
       </c>
@@ -11751,11 +11733,11 @@
       <c r="K258" s="21"/>
       <c r="L258" s="86"/>
       <c r="M258" s="84"/>
-      <c r="N258" s="189"/>
-      <c r="O258" s="189"/>
+      <c r="N258" s="265"/>
+      <c r="O258" s="265"/>
     </row>
     <row r="259" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="213"/>
+      <c r="A259" s="238"/>
       <c r="B259" s="97" t="s">
         <v>119</v>
       </c>
@@ -11770,11 +11752,11 @@
       <c r="K259" s="22"/>
       <c r="L259" s="86"/>
       <c r="M259" s="84"/>
-      <c r="N259" s="189"/>
-      <c r="O259" s="189"/>
+      <c r="N259" s="265"/>
+      <c r="O259" s="265"/>
     </row>
     <row r="260" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="213"/>
+      <c r="A260" s="238"/>
       <c r="B260" s="43" t="s">
         <v>102</v>
       </c>
@@ -11789,11 +11771,11 @@
       <c r="K260" s="99"/>
       <c r="L260" s="99"/>
       <c r="M260" s="98"/>
-      <c r="N260" s="189"/>
-      <c r="O260" s="189"/>
+      <c r="N260" s="265"/>
+      <c r="O260" s="265"/>
     </row>
     <row r="261" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="213"/>
+      <c r="A261" s="238"/>
       <c r="B261" s="94" t="s">
         <v>252</v>
       </c>
@@ -11808,11 +11790,11 @@
       <c r="K261" s="20"/>
       <c r="L261" s="86"/>
       <c r="M261" s="84"/>
-      <c r="N261" s="189"/>
-      <c r="O261" s="189"/>
+      <c r="N261" s="265"/>
+      <c r="O261" s="265"/>
     </row>
     <row r="262" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="213"/>
+      <c r="A262" s="238"/>
       <c r="B262" s="97" t="s">
         <v>253</v>
       </c>
@@ -11827,11 +11809,11 @@
       <c r="K262" s="21"/>
       <c r="L262" s="86"/>
       <c r="M262" s="84"/>
-      <c r="N262" s="189"/>
-      <c r="O262" s="189"/>
+      <c r="N262" s="265"/>
+      <c r="O262" s="265"/>
     </row>
     <row r="263" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="213"/>
+      <c r="A263" s="238"/>
       <c r="B263" s="97" t="s">
         <v>254</v>
       </c>
@@ -11846,11 +11828,11 @@
       <c r="K263" s="21"/>
       <c r="L263" s="86"/>
       <c r="M263" s="84"/>
-      <c r="N263" s="189"/>
-      <c r="O263" s="189"/>
+      <c r="N263" s="265"/>
+      <c r="O263" s="265"/>
     </row>
     <row r="264" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="214"/>
+      <c r="A264" s="229"/>
       <c r="B264" s="105" t="s">
         <v>119</v>
       </c>
@@ -11865,11 +11847,11 @@
       <c r="K264" s="22"/>
       <c r="L264" s="90"/>
       <c r="M264" s="88"/>
-      <c r="N264" s="190"/>
-      <c r="O264" s="190"/>
+      <c r="N264" s="266"/>
+      <c r="O264" s="266"/>
     </row>
     <row r="265" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="212" t="s">
+      <c r="A265" s="239" t="s">
         <v>255</v>
       </c>
       <c r="B265" s="43" t="s">
@@ -11886,11 +11868,11 @@
       <c r="K265" s="99"/>
       <c r="L265" s="99"/>
       <c r="M265" s="98"/>
-      <c r="N265" s="188"/>
-      <c r="O265" s="188"/>
+      <c r="N265" s="264"/>
+      <c r="O265" s="264"/>
     </row>
     <row r="266" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="213"/>
+      <c r="A266" s="238"/>
       <c r="B266" s="94" t="s">
         <v>256</v>
       </c>
@@ -11905,11 +11887,11 @@
       <c r="K266" s="20"/>
       <c r="L266" s="96"/>
       <c r="M266" s="95"/>
-      <c r="N266" s="189"/>
-      <c r="O266" s="189"/>
+      <c r="N266" s="265"/>
+      <c r="O266" s="265"/>
     </row>
     <row r="267" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="213"/>
+      <c r="A267" s="238"/>
       <c r="B267" s="97" t="s">
         <v>257</v>
       </c>
@@ -11924,11 +11906,11 @@
       <c r="K267" s="21"/>
       <c r="L267" s="86"/>
       <c r="M267" s="84"/>
-      <c r="N267" s="189"/>
-      <c r="O267" s="189"/>
+      <c r="N267" s="265"/>
+      <c r="O267" s="265"/>
     </row>
     <row r="268" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="213"/>
+      <c r="A268" s="238"/>
       <c r="B268" s="97" t="s">
         <v>258</v>
       </c>
@@ -11938,7 +11920,7 @@
       <c r="D268" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="E268" s="259">
+      <c r="E268" s="187">
         <v>1999</v>
       </c>
       <c r="F268" s="84" t="s">
@@ -11957,11 +11939,11 @@
       <c r="M268" s="87" t="s">
         <v>388</v>
       </c>
-      <c r="N268" s="189"/>
-      <c r="O268" s="189"/>
+      <c r="N268" s="265"/>
+      <c r="O268" s="265"/>
     </row>
     <row r="269" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="213"/>
+      <c r="A269" s="238"/>
       <c r="B269" s="97" t="s">
         <v>259</v>
       </c>
@@ -11976,11 +11958,11 @@
       <c r="K269" s="21"/>
       <c r="L269" s="86"/>
       <c r="M269" s="84"/>
-      <c r="N269" s="189"/>
-      <c r="O269" s="189"/>
+      <c r="N269" s="265"/>
+      <c r="O269" s="265"/>
     </row>
     <row r="270" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="213"/>
+      <c r="A270" s="238"/>
       <c r="B270" s="97" t="s">
         <v>119</v>
       </c>
@@ -11995,11 +11977,11 @@
       <c r="K270" s="22"/>
       <c r="L270" s="86"/>
       <c r="M270" s="84"/>
-      <c r="N270" s="189"/>
-      <c r="O270" s="189"/>
+      <c r="N270" s="265"/>
+      <c r="O270" s="265"/>
     </row>
     <row r="271" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="213"/>
+      <c r="A271" s="238"/>
       <c r="B271" s="43" t="s">
         <v>102</v>
       </c>
@@ -12014,11 +11996,11 @@
       <c r="K271" s="107"/>
       <c r="L271" s="107"/>
       <c r="M271" s="98"/>
-      <c r="N271" s="189"/>
-      <c r="O271" s="189"/>
+      <c r="N271" s="265"/>
+      <c r="O271" s="265"/>
     </row>
     <row r="272" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="213"/>
+      <c r="A272" s="238"/>
       <c r="B272" s="97" t="s">
         <v>260</v>
       </c>
@@ -12033,11 +12015,11 @@
       <c r="K272" s="20"/>
       <c r="L272" s="86"/>
       <c r="M272" s="84"/>
-      <c r="N272" s="189"/>
-      <c r="O272" s="189"/>
+      <c r="N272" s="265"/>
+      <c r="O272" s="265"/>
     </row>
     <row r="273" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="214"/>
+      <c r="A273" s="229"/>
       <c r="B273" s="105" t="s">
         <v>119</v>
       </c>
@@ -12052,14 +12034,14 @@
       <c r="K273" s="22"/>
       <c r="L273" s="90"/>
       <c r="M273" s="88"/>
-      <c r="N273" s="190"/>
-      <c r="O273" s="190"/>
+      <c r="N273" s="266"/>
+      <c r="O273" s="266"/>
     </row>
     <row r="274" spans="1:15" s="138" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="205" t="s">
+      <c r="A274" s="236" t="s">
         <v>293</v>
       </c>
-      <c r="B274" s="206"/>
+      <c r="B274" s="237"/>
       <c r="C274" s="139"/>
       <c r="D274" s="140"/>
       <c r="E274" s="140"/>
@@ -12075,7 +12057,7 @@
       <c r="O274" s="137"/>
     </row>
     <row r="275" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="213" t="s">
+      <c r="A275" s="238" t="s">
         <v>308</v>
       </c>
       <c r="B275" s="142" t="s">
@@ -12092,11 +12074,11 @@
       <c r="K275" s="93"/>
       <c r="L275" s="93"/>
       <c r="M275" s="92"/>
-      <c r="N275" s="188"/>
-      <c r="O275" s="188"/>
+      <c r="N275" s="264"/>
+      <c r="O275" s="264"/>
     </row>
     <row r="276" spans="1:15" s="71" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="213"/>
+      <c r="A276" s="238"/>
       <c r="B276" s="94" t="s">
         <v>311</v>
       </c>
@@ -12111,20 +12093,20 @@
       <c r="K276" s="129"/>
       <c r="L276" s="128"/>
       <c r="M276" s="74"/>
-      <c r="N276" s="189"/>
-      <c r="O276" s="189"/>
+      <c r="N276" s="265"/>
+      <c r="O276" s="265"/>
     </row>
     <row r="277" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="213"/>
+      <c r="A277" s="238"/>
       <c r="B277" s="97" t="s">
         <v>310</v>
       </c>
       <c r="C277" s="130"/>
-      <c r="N277" s="189"/>
-      <c r="O277" s="189"/>
+      <c r="N277" s="265"/>
+      <c r="O277" s="265"/>
     </row>
     <row r="278" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="213"/>
+      <c r="A278" s="238"/>
       <c r="B278" s="121" t="s">
         <v>274</v>
       </c>
@@ -12134,13 +12116,13 @@
       <c r="D278" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="E278" s="259">
+      <c r="E278" s="187">
         <v>2021</v>
       </c>
       <c r="F278" s="84" t="s">
         <v>392</v>
       </c>
-      <c r="G278" s="264" t="s">
+      <c r="G278" s="192" t="s">
         <v>393</v>
       </c>
       <c r="H278" s="3" t="s">
@@ -12153,11 +12135,11 @@
       <c r="K278" s="20"/>
       <c r="L278" s="76"/>
       <c r="M278" s="80"/>
-      <c r="N278" s="189"/>
-      <c r="O278" s="189"/>
+      <c r="N278" s="265"/>
+      <c r="O278" s="265"/>
     </row>
     <row r="279" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="213"/>
+      <c r="A279" s="238"/>
       <c r="B279" s="121" t="s">
         <v>275</v>
       </c>
@@ -12172,11 +12154,11 @@
       <c r="K279" s="21"/>
       <c r="L279" s="86"/>
       <c r="M279" s="84"/>
-      <c r="N279" s="189"/>
-      <c r="O279" s="189"/>
+      <c r="N279" s="265"/>
+      <c r="O279" s="265"/>
     </row>
     <row r="280" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="213"/>
+      <c r="A280" s="238"/>
       <c r="B280" s="121" t="s">
         <v>276</v>
       </c>
@@ -12193,11 +12175,11 @@
       <c r="M280" s="87" t="s">
         <v>395</v>
       </c>
-      <c r="N280" s="189"/>
-      <c r="O280" s="189"/>
+      <c r="N280" s="265"/>
+      <c r="O280" s="265"/>
     </row>
     <row r="281" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="213"/>
+      <c r="A281" s="238"/>
       <c r="B281" s="121" t="s">
         <v>277</v>
       </c>
@@ -12212,11 +12194,11 @@
       <c r="K281" s="21"/>
       <c r="L281" s="86"/>
       <c r="M281" s="84"/>
-      <c r="N281" s="189"/>
-      <c r="O281" s="189"/>
+      <c r="N281" s="265"/>
+      <c r="O281" s="265"/>
     </row>
     <row r="282" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="213"/>
+      <c r="A282" s="238"/>
       <c r="B282" s="121" t="s">
         <v>278</v>
       </c>
@@ -12231,11 +12213,11 @@
       <c r="K282" s="21"/>
       <c r="L282" s="86"/>
       <c r="M282" s="84"/>
-      <c r="N282" s="189"/>
-      <c r="O282" s="189"/>
+      <c r="N282" s="265"/>
+      <c r="O282" s="265"/>
     </row>
     <row r="283" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="213"/>
+      <c r="A283" s="238"/>
       <c r="B283" s="121" t="s">
         <v>279</v>
       </c>
@@ -12250,11 +12232,11 @@
       <c r="K283" s="21"/>
       <c r="L283" s="86"/>
       <c r="M283" s="84"/>
-      <c r="N283" s="189"/>
-      <c r="O283" s="189"/>
+      <c r="N283" s="265"/>
+      <c r="O283" s="265"/>
     </row>
     <row r="284" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="213"/>
+      <c r="A284" s="238"/>
       <c r="B284" s="121" t="s">
         <v>119</v>
       </c>
@@ -12269,11 +12251,11 @@
       <c r="K284" s="22"/>
       <c r="L284" s="86"/>
       <c r="M284" s="84"/>
-      <c r="N284" s="189"/>
-      <c r="O284" s="189"/>
+      <c r="N284" s="265"/>
+      <c r="O284" s="265"/>
     </row>
     <row r="285" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="213"/>
+      <c r="A285" s="238"/>
       <c r="B285" s="43" t="s">
         <v>102</v>
       </c>
@@ -12288,11 +12270,11 @@
       <c r="K285" s="99"/>
       <c r="L285" s="99"/>
       <c r="M285" s="98"/>
-      <c r="N285" s="189"/>
-      <c r="O285" s="189"/>
+      <c r="N285" s="265"/>
+      <c r="O285" s="265"/>
     </row>
     <row r="286" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="213"/>
+      <c r="A286" s="238"/>
       <c r="B286" s="94" t="s">
         <v>309</v>
       </c>
@@ -12307,11 +12289,11 @@
       <c r="K286" s="20"/>
       <c r="L286" s="86"/>
       <c r="M286" s="84"/>
-      <c r="N286" s="189"/>
-      <c r="O286" s="189"/>
+      <c r="N286" s="265"/>
+      <c r="O286" s="265"/>
     </row>
     <row r="287" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="213"/>
+      <c r="A287" s="238"/>
       <c r="B287" s="97" t="s">
         <v>280</v>
       </c>
@@ -12326,11 +12308,11 @@
       <c r="K287" s="21"/>
       <c r="L287" s="86"/>
       <c r="M287" s="84"/>
-      <c r="N287" s="189"/>
-      <c r="O287" s="189"/>
+      <c r="N287" s="265"/>
+      <c r="O287" s="265"/>
     </row>
     <row r="288" spans="1:15" s="71" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="214"/>
+      <c r="A288" s="229"/>
       <c r="B288" s="105" t="s">
         <v>119</v>
       </c>
@@ -12345,42 +12327,68 @@
       <c r="K288" s="22"/>
       <c r="L288" s="90"/>
       <c r="M288" s="88"/>
-      <c r="N288" s="190"/>
-      <c r="O288" s="190"/>
+      <c r="N288" s="266"/>
+      <c r="O288" s="266"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A90:A99"/>
-    <mergeCell ref="A129:A139"/>
-    <mergeCell ref="A123:A128"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A275:A288"/>
-    <mergeCell ref="A265:A273"/>
-    <mergeCell ref="A250:A264"/>
-    <mergeCell ref="A240:A248"/>
-    <mergeCell ref="A229:A239"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A213:A227"/>
-    <mergeCell ref="A160:A170"/>
-    <mergeCell ref="A180:A185"/>
-    <mergeCell ref="A171:A179"/>
-    <mergeCell ref="A109:A114"/>
-    <mergeCell ref="A100:A108"/>
-    <mergeCell ref="A46:A53"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A140:A147"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A187:A194"/>
-    <mergeCell ref="A148:A159"/>
-    <mergeCell ref="A195:A205"/>
-    <mergeCell ref="A206:A211"/>
+    <mergeCell ref="N275:N288"/>
+    <mergeCell ref="O275:O288"/>
+    <mergeCell ref="N250:N264"/>
+    <mergeCell ref="O250:O264"/>
+    <mergeCell ref="N265:N273"/>
+    <mergeCell ref="O265:O273"/>
+    <mergeCell ref="N213:N227"/>
+    <mergeCell ref="O213:O227"/>
+    <mergeCell ref="N229:N239"/>
+    <mergeCell ref="O229:O239"/>
+    <mergeCell ref="N240:N248"/>
+    <mergeCell ref="O240:O248"/>
+    <mergeCell ref="N187:N194"/>
+    <mergeCell ref="O187:O194"/>
+    <mergeCell ref="N195:N205"/>
+    <mergeCell ref="O195:O205"/>
+    <mergeCell ref="N206:N211"/>
+    <mergeCell ref="O206:O211"/>
+    <mergeCell ref="N36:N45"/>
+    <mergeCell ref="O36:O45"/>
+    <mergeCell ref="N46:N53"/>
+    <mergeCell ref="O46:O53"/>
+    <mergeCell ref="N54:N65"/>
+    <mergeCell ref="O54:O65"/>
+    <mergeCell ref="N66:N77"/>
+    <mergeCell ref="O66:O77"/>
+    <mergeCell ref="N78:N89"/>
+    <mergeCell ref="O78:O89"/>
+    <mergeCell ref="N90:N99"/>
+    <mergeCell ref="N100:N108"/>
+    <mergeCell ref="N160:N170"/>
+    <mergeCell ref="O160:O170"/>
+    <mergeCell ref="N171:N179"/>
+    <mergeCell ref="O171:O179"/>
+    <mergeCell ref="N180:N185"/>
+    <mergeCell ref="O180:O185"/>
+    <mergeCell ref="N129:N139"/>
+    <mergeCell ref="O129:O139"/>
+    <mergeCell ref="N140:N147"/>
+    <mergeCell ref="O140:O147"/>
+    <mergeCell ref="N148:N159"/>
+    <mergeCell ref="O148:O159"/>
+    <mergeCell ref="N109:N114"/>
+    <mergeCell ref="O109:O114"/>
+    <mergeCell ref="N115:N122"/>
+    <mergeCell ref="O115:O122"/>
+    <mergeCell ref="N123:N128"/>
+    <mergeCell ref="O123:O128"/>
+    <mergeCell ref="O100:O108"/>
+    <mergeCell ref="N14:N18"/>
+    <mergeCell ref="O14:O18"/>
+    <mergeCell ref="N19:N26"/>
+    <mergeCell ref="O19:O26"/>
+    <mergeCell ref="N28:N35"/>
+    <mergeCell ref="O28:O35"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="A115:A122"/>
     <mergeCell ref="G1:G2"/>
@@ -12405,222 +12413,191 @@
     <mergeCell ref="A78:A89"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="O100:O108"/>
-    <mergeCell ref="N14:N18"/>
-    <mergeCell ref="O14:O18"/>
-    <mergeCell ref="N19:N26"/>
-    <mergeCell ref="O19:O26"/>
-    <mergeCell ref="N28:N35"/>
-    <mergeCell ref="O28:O35"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N129:N139"/>
-    <mergeCell ref="O129:O139"/>
-    <mergeCell ref="N140:N147"/>
-    <mergeCell ref="O140:O147"/>
-    <mergeCell ref="N148:N159"/>
-    <mergeCell ref="O148:O159"/>
-    <mergeCell ref="N109:N114"/>
-    <mergeCell ref="O109:O114"/>
-    <mergeCell ref="N115:N122"/>
-    <mergeCell ref="O115:O122"/>
-    <mergeCell ref="N123:N128"/>
-    <mergeCell ref="O123:O128"/>
-    <mergeCell ref="N187:N194"/>
-    <mergeCell ref="O187:O194"/>
-    <mergeCell ref="N195:N205"/>
-    <mergeCell ref="O195:O205"/>
-    <mergeCell ref="N206:N211"/>
-    <mergeCell ref="O206:O211"/>
-    <mergeCell ref="N36:N45"/>
-    <mergeCell ref="O36:O45"/>
-    <mergeCell ref="N46:N53"/>
-    <mergeCell ref="O46:O53"/>
-    <mergeCell ref="N54:N65"/>
-    <mergeCell ref="O54:O65"/>
-    <mergeCell ref="N66:N77"/>
-    <mergeCell ref="O66:O77"/>
-    <mergeCell ref="N78:N89"/>
-    <mergeCell ref="O78:O89"/>
-    <mergeCell ref="N90:N99"/>
-    <mergeCell ref="N100:N108"/>
-    <mergeCell ref="N160:N170"/>
-    <mergeCell ref="O160:O170"/>
-    <mergeCell ref="N171:N179"/>
-    <mergeCell ref="O171:O179"/>
-    <mergeCell ref="N180:N185"/>
-    <mergeCell ref="O180:O185"/>
-    <mergeCell ref="N275:N288"/>
-    <mergeCell ref="O275:O288"/>
-    <mergeCell ref="N250:N264"/>
-    <mergeCell ref="O250:O264"/>
-    <mergeCell ref="N265:N273"/>
-    <mergeCell ref="O265:O273"/>
-    <mergeCell ref="N213:N227"/>
-    <mergeCell ref="O213:O227"/>
-    <mergeCell ref="N229:N239"/>
-    <mergeCell ref="O229:O239"/>
-    <mergeCell ref="N240:N248"/>
-    <mergeCell ref="O240:O248"/>
+    <mergeCell ref="A275:A288"/>
+    <mergeCell ref="A265:A273"/>
+    <mergeCell ref="A250:A264"/>
+    <mergeCell ref="A240:A248"/>
+    <mergeCell ref="A229:A239"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A213:A227"/>
+    <mergeCell ref="A160:A170"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="A171:A179"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A187:A194"/>
+    <mergeCell ref="A195:A205"/>
+    <mergeCell ref="A206:A211"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A90:A99"/>
+    <mergeCell ref="A129:A139"/>
+    <mergeCell ref="A123:A128"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A109:A114"/>
+    <mergeCell ref="A100:A108"/>
+    <mergeCell ref="A46:A53"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A140:A147"/>
+    <mergeCell ref="A148:A159"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:D2 N228 J1:L8 J269:L288 J22:L28 K21:L21 J105:L109 J112:L123 K110:L111 J134:L142 K130:L133 J125:L129 K124:L124 J144:L148 K143:L143 J150:L187 K149:L149 J234:L240 K231:L233 J244:L267 K241:L243 J70:L100 K67:L69 K37:L39 J40:L46 J63:L66 K55:L62 J31:L36 J49:L54 K47:L48 J220:L230 J190:L195 J197:L206 K196:L196 J208:L213 K207:L207 J13:L20">
-    <cfRule type="expression" dxfId="32" priority="40">
+  <conditionalFormatting sqref="D1:D2 J1:L8 J13:L20 K21:L21 J22:L28 J31:L36 K37:L39 J40:L46 K47:L48 J49:L54 K55:L62 J63:L66 K67:L69 J70:L100 J105:L109 K110:L111 J112:L123 K124:L124 J125:L129 K130:L133 J134:L142 K143:L143 J144:L148 K149:L149 J150:L187 J190:L195 K196:L196 J197:L206 K207:L207 J208:L213 J220:L230 N228 K231:L233 J234:L240 K241:L243 J244:L267 J269:L288">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>$I1="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G188">
+    <cfRule type="expression" dxfId="29" priority="5">
+      <formula>$J188="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21">
+    <cfRule type="expression" dxfId="28" priority="23">
+      <formula>$J21="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J37:J39">
+    <cfRule type="expression" dxfId="27" priority="13">
+      <formula>$J37="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:J48">
+    <cfRule type="expression" dxfId="26" priority="10">
+      <formula>$J47="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55:J62">
+    <cfRule type="expression" dxfId="25" priority="12">
+      <formula>$J55="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J67:J69">
+    <cfRule type="expression" dxfId="24" priority="14">
+      <formula>$J67="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J110:J111">
+    <cfRule type="expression" dxfId="23" priority="21">
+      <formula>$J110="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J124">
+    <cfRule type="expression" dxfId="22" priority="19">
+      <formula>$J124="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J130:J133">
+    <cfRule type="expression" dxfId="21" priority="20">
+      <formula>$J130="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J143">
+    <cfRule type="expression" dxfId="20" priority="18">
+      <formula>$J143="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J149">
+    <cfRule type="expression" dxfId="19" priority="17">
+      <formula>$J149="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J196">
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>$J196="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J207">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>$J207="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J231:J233">
+    <cfRule type="expression" dxfId="16" priority="16">
+      <formula>$J231="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J241:J243">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>$J241="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:L11 K12:M12">
+    <cfRule type="expression" dxfId="14" priority="1">
+      <formula>$J9="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29:L30 G30">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$J29="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J101:L104">
+    <cfRule type="expression" dxfId="12" priority="22">
+      <formula>$J101="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J188:L189">
+    <cfRule type="expression" dxfId="11" priority="6">
+      <formula>$J188="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J215:L218 J219">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>$J215="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J268:L268">
+    <cfRule type="expression" dxfId="9" priority="24">
+      <formula>$J268="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K214:L214">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>$J219="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K219:L219">
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>#REF!="Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="31" priority="43">
+    <cfRule type="expression" dxfId="6" priority="43">
       <formula>#REF!="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="expression" dxfId="30" priority="33">
+    <cfRule type="expression" dxfId="5" priority="33">
       <formula>$I6="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="29" priority="32">
+    <cfRule type="expression" dxfId="4" priority="32">
       <formula>$I27="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N186">
-    <cfRule type="expression" dxfId="28" priority="31">
+    <cfRule type="expression" dxfId="3" priority="31">
       <formula>$I186="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N212">
-    <cfRule type="expression" dxfId="27" priority="30">
+    <cfRule type="expression" dxfId="2" priority="30">
       <formula>$I212="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N249">
-    <cfRule type="expression" dxfId="26" priority="29">
+    <cfRule type="expression" dxfId="1" priority="29">
       <formula>$I249="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N274">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="0" priority="27">
       <formula>$I274="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J268:L268">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>$J268="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>$J21="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J101:L104">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>$J101="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J110:J111">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>$J110="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J130:J133">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>$J130="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J124">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>$J124="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J143">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>$J143="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J149">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>$J149="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J231:J233">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>$J231="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J241:J243">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>$J241="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J67:J69">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>$J67="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37:J39">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>$J37="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J55:J62">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>$J55="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J29:L30 G30">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$J29="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:J48">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>$J47="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J215:L218 J219">
-    <cfRule type="expression" dxfId="8" priority="7">
-      <formula>$J215="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K214:L214">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>$J219="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K219:L219">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>#REF!="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G188">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$J188="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J188:L189">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$J188="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J196">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$J196="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J207">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$J207="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:L9">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$J9="Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:L11 K12:M12">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$J10="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="1009" yWindow="1023" count="15">
@@ -12710,14 +12687,14 @@
       <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" s="31" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="275" t="s">
         <v>281</v>
       </c>
-      <c r="B3" s="231"/>
+      <c r="B3" s="275"/>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="230"/>
-      <c r="B4" s="230"/>
+      <c r="A4" s="274"/>
+      <c r="B4" s="274"/>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -12771,26 +12748,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65db695a-03c5-40dc-8b31-fde6e09a4b01">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b5388621-ea09-440d-99f9-2916c41d9c15" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1151D2F3E73E54E96931DEC2C4BD52B" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="76f30d11f3f1ab636a1ce14ba6b65dba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65db695a-03c5-40dc-8b31-fde6e09a4b01" xmlns:ns3="b5388621-ea09-440d-99f9-2916c41d9c15" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba8031a2bc0820f314467ad3bdd63355" ns2:_="" ns3:_="">
     <xsd:import namespace="65db695a-03c5-40dc-8b31-fde6e09a4b01"/>
@@ -13003,26 +12960,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FEA007-FE0D-422D-AB7D-BF57EC447DA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="65db695a-03c5-40dc-8b31-fde6e09a4b01"/>
-    <ds:schemaRef ds:uri="b5388621-ea09-440d-99f9-2916c41d9c15"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9EA11F2-72C1-405E-BD6A-290D3CF2104C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="65db695a-03c5-40dc-8b31-fde6e09a4b01">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b5388621-ea09-440d-99f9-2916c41d9c15" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79612192-7ECC-4289-942B-35AA1C3C498F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13041,6 +12999,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9EA11F2-72C1-405E-BD6A-290D3CF2104C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82FEA007-FE0D-422D-AB7D-BF57EC447DA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="65db695a-03c5-40dc-8b31-fde6e09a4b01"/>
+    <ds:schemaRef ds:uri="b5388621-ea09-440d-99f9-2916c41d9c15"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{1b52b3a1-dbcb-41fb-a452-370cf542753f}" enabled="1" method="Privileged" siteId="{d1323671-cdbe-4417-b4d4-bdb24b51316b}" removed="0"/>
